--- a/GMAT_Generalized_LowThrust/GMAT_LowThrust_TemplateBAD.xlsx
+++ b/GMAT_Generalized_LowThrust/GMAT_LowThrust_TemplateBAD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GMAT_Repo\GMAT_Generalized_LowThrust\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14934F8A-F599-48DD-88C4-9673BD17D4AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035D1916-08A3-4D52-8092-E60C35388872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D560DD9D-6E27-4E94-AF59-63C3E552E822}"/>
   </bookViews>
@@ -74,9 +74,6 @@
     <t>Planets to Plot</t>
   </si>
   <si>
-    <t>Planetary Rendezvous</t>
-  </si>
-  <si>
     <t>Center Body</t>
   </si>
   <si>
@@ -119,9 +116,6 @@
     <t>Mass Flow Option (On or Off)</t>
   </si>
   <si>
-    <t>Off</t>
-  </si>
-  <si>
     <t>Thrust-x (Newtons or m/s^2) (leave blank if Thrust Angles)</t>
   </si>
   <si>
@@ -146,10 +140,16 @@
     <t>Point Masses to Simulate  (leave blank if 2-body)</t>
   </si>
   <si>
+    <t>Thrust Angles</t>
+  </si>
+  <si>
     <t>Acceleration</t>
   </si>
   <si>
-    <t>Thrust Angles</t>
+    <t>On</t>
+  </si>
+  <si>
+    <t>State Vector</t>
   </si>
 </sst>
 </file>
@@ -540,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ADD936A-19D8-4957-AFAD-64C058FD9022}">
   <dimension ref="A1:W201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="V207" sqref="V207"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -572,78 +572,77 @@
   <sheetData>
     <row r="1" spans="1:23" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="L1" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="S1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
-        <f>2452632.36042824</f>
         <v>2452632.3604282402</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -656,13 +655,17 @@
         <v>25.334764034720301</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
       <c r="I2" s="5">
         <v>1000</v>
       </c>
@@ -670,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="L2">
         <v>3000</v>
@@ -682,10 +685,10 @@
         <v>1</v>
       </c>
       <c r="O2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="Q2">
         <v>1.4999999999999999E-4</v>
@@ -693,9 +696,15 @@
       <c r="R2" s="1">
         <v>0</v>
       </c>
-      <c r="S2" s="1"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
+      <c r="S2" s="1">
+        <v>1.04356000729457E-4</v>
+      </c>
+      <c r="T2" s="2">
+        <v>-9.0864882620043298E-5</v>
+      </c>
+      <c r="U2" s="2">
+        <v>-5.2764358951092E-5</v>
+      </c>
       <c r="V2" s="1">
         <v>0.19422587091357801</v>
       </c>
@@ -714,8 +723,12 @@
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
@@ -728,9 +741,15 @@
       <c r="R3" s="1">
         <v>412462.31155778898</v>
       </c>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
+      <c r="S3" s="2">
+        <v>9.8685416016823198E-5</v>
+      </c>
+      <c r="T3" s="2">
+        <v>-9.0454101042759404E-5</v>
+      </c>
+      <c r="U3" s="2">
+        <v>-4.72286620673264E-5</v>
+      </c>
       <c r="V3" s="1">
         <v>0.29983044636044098</v>
       </c>
@@ -749,8 +768,12 @@
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -763,9 +786,15 @@
       <c r="R4" s="1">
         <v>824924.62311557797</v>
       </c>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
+      <c r="S4" s="2">
+        <v>9.1966320504167795E-5</v>
+      </c>
+      <c r="T4" s="2">
+        <v>-8.9800773924809995E-5</v>
+      </c>
+      <c r="U4" s="2">
+        <v>-4.2043449820931199E-5</v>
+      </c>
       <c r="V4" s="1">
         <v>0.41149749633480998</v>
       </c>
@@ -776,6 +805,7 @@
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -793,9 +823,15 @@
       <c r="R5" s="1">
         <v>1237386.9346733701</v>
       </c>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
+      <c r="S5" s="2">
+        <v>8.4425663606100699E-5</v>
+      </c>
+      <c r="T5" s="2">
+        <v>-8.9132366501563202E-5</v>
+      </c>
+      <c r="U5" s="2">
+        <v>-3.7190128589967201E-5</v>
+      </c>
       <c r="V5" s="1">
         <v>0.53059977853611195</v>
       </c>
@@ -824,9 +860,15 @@
       <c r="R6" s="1">
         <v>1649849.2462311599</v>
       </c>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
+      <c r="S6" s="2">
+        <v>7.6269729387354603E-5</v>
+      </c>
+      <c r="T6" s="2">
+        <v>-8.8619374672560501E-5</v>
+      </c>
+      <c r="U6" s="2">
+        <v>-3.2650494431144302E-5</v>
+      </c>
       <c r="V6" s="1">
         <v>0.65830794105111101</v>
       </c>
@@ -855,9 +897,15 @@
       <c r="R7" s="1">
         <v>2062311.5577889499</v>
       </c>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
+      <c r="S7" s="2">
+        <v>6.7682912159471105E-5</v>
+      </c>
+      <c r="T7" s="2">
+        <v>-8.8380963786912695E-5</v>
+      </c>
+      <c r="U7" s="2">
+        <v>-2.8406671307254199E-5</v>
+      </c>
       <c r="V7" s="1">
         <v>0.79545209117474103</v>
       </c>
@@ -886,9 +934,15 @@
       <c r="R8" s="1">
         <v>2474773.8693467299</v>
       </c>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
+      <c r="S8" s="2">
+        <v>5.8826625808838699E-5</v>
+      </c>
+      <c r="T8" s="2">
+        <v>-8.8490398839966196E-5</v>
+      </c>
+      <c r="U8" s="2">
+        <v>-2.4441068101974101E-5</v>
+      </c>
       <c r="V8" s="1">
         <v>0.94231702118126703</v>
       </c>
@@ -917,9 +971,15 @@
       <c r="R9" s="1">
         <v>2887236.1809045202</v>
       </c>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
+      <c r="S9" s="2">
+        <v>4.98384263681656E-5</v>
+      </c>
+      <c r="T9" s="2">
+        <v>-8.8980199997534503E-5</v>
+      </c>
+      <c r="U9" s="2">
+        <v>-2.0736355904008101E-5</v>
+      </c>
       <c r="V9" s="1">
         <v>1.0984101782589299</v>
       </c>
@@ -948,9 +1008,15 @@
       <c r="R10" s="1">
         <v>3299698.49246231</v>
       </c>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
+      <c r="S10" s="2">
+        <v>4.0831457030528503E-5</v>
+      </c>
+      <c r="T10" s="2">
+        <v>-8.9847009311556404E-5</v>
+      </c>
+      <c r="U10" s="2">
+        <v>-1.7275466409561499E-5</v>
+      </c>
       <c r="V10" s="1">
         <v>1.26226650204766</v>
       </c>
@@ -979,9 +1045,15 @@
       <c r="R11" s="1">
         <v>3712160.8040200998</v>
       </c>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
+      <c r="S11" s="2">
+        <v>3.1894338563875797E-5</v>
+      </c>
+      <c r="T11" s="2">
+        <v>-9.1056196488359495E-5</v>
+      </c>
+      <c r="U11" s="2">
+        <v>-1.40416116338574E-5</v>
+      </c>
       <c r="V11" s="1">
         <v>1.4311302136772299</v>
       </c>
@@ -990,16 +1062,21 @@
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="M12" s="5"/>
-      <c r="N12" t="s">
+      <c r="M12" t="s">
         <v>0</v>
       </c>
       <c r="R12" s="1">
         <v>4124623.1155778901</v>
       </c>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
+      <c r="S12" s="2">
+        <v>2.3091625253577601E-5</v>
+      </c>
+      <c r="T12" s="2">
+        <v>-9.2546261754419807E-5</v>
+      </c>
+      <c r="U12" s="2">
+        <v>-1.1018324447143201E-5</v>
+      </c>
       <c r="V12" s="1">
         <v>1.53031951919846</v>
       </c>
@@ -1008,13 +1085,18 @@
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="M13" s="5"/>
       <c r="R13" s="1">
         <v>4537085.4271356799</v>
       </c>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
+      <c r="S13" s="2">
+        <v>1.44649276236155E-5</v>
+      </c>
+      <c r="T13" s="2">
+        <v>-9.4233111177753395E-5</v>
+      </c>
+      <c r="U13" s="2">
+        <v>-8.1895187700228896E-6</v>
+      </c>
       <c r="V13" s="1">
         <v>1.36311749921384</v>
       </c>
@@ -1023,13 +1105,18 @@
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="M14" s="5"/>
       <c r="R14" s="1">
         <v>4949547.7386934701</v>
       </c>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
+      <c r="S14" s="2">
+        <v>6.0347699643584797E-6</v>
+      </c>
+      <c r="T14" s="2">
+        <v>-9.6014284063014301E-5</v>
+      </c>
+      <c r="U14" s="2">
+        <v>-5.5395675919377901E-6</v>
+      </c>
       <c r="V14" s="1">
         <v>1.1939844617412601</v>
       </c>
@@ -1038,13 +1125,18 @@
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="D15" s="7"/>
       <c r="R15" s="1">
         <v>5362010.0502512604</v>
       </c>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
+      <c r="S15" s="2">
+        <v>-2.1967941217095299E-6</v>
+      </c>
+      <c r="T15" s="2">
+        <v>-9.7773203954996298E-5</v>
+      </c>
+      <c r="U15" s="2">
+        <v>-3.0533963330380602E-6</v>
+      </c>
       <c r="V15" s="1">
         <v>1.02890829525936</v>
       </c>
@@ -1056,9 +1148,15 @@
       <c r="R16" s="1">
         <v>5774472.3618090404</v>
       </c>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
+      <c r="S16" s="2">
+        <v>-1.02428377256189E-5</v>
+      </c>
+      <c r="T16" s="2">
+        <v>-9.93835059125216E-5</v>
+      </c>
+      <c r="U16" s="2">
+        <v>-7.1658847376774998E-7</v>
+      </c>
       <c r="V16" s="1">
         <v>0.86880883136605302</v>
       </c>
@@ -1066,14 +1164,19 @@
         <v>4.2388488280016403E-3</v>
       </c>
     </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.3">
-      <c r="C17" s="6"/>
+    <row r="17" spans="18:23" x14ac:dyDescent="0.3">
       <c r="R17" s="1">
         <v>6186934.6733668298</v>
       </c>
-      <c r="S17" s="2"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="2"/>
+      <c r="S17" s="2">
+        <v>-1.8127574227264501E-5</v>
+      </c>
+      <c r="T17" s="1">
+        <v>-1.0071346534543099E-4</v>
+      </c>
+      <c r="U17" s="2">
+        <v>1.4845001500340499E-6</v>
+      </c>
       <c r="V17" s="1">
         <v>0.71361108329484302</v>
       </c>
@@ -1081,14 +1184,19 @@
         <v>-1.7165523700250301E-2</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.3">
-      <c r="C18" s="6"/>
+    <row r="18" spans="18:23" x14ac:dyDescent="0.3">
       <c r="R18" s="1">
         <v>6599396.98492462</v>
       </c>
-      <c r="S18" s="2"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="2"/>
+      <c r="S18" s="2">
+        <v>-2.58818700401737E-5</v>
+      </c>
+      <c r="T18" s="1">
+        <v>-1.01630520704037E-4</v>
+      </c>
+      <c r="U18" s="2">
+        <v>3.56262242364608E-6</v>
+      </c>
       <c r="V18" s="1">
         <v>0.56260358200161897</v>
       </c>
@@ -1096,14 +1204,19 @@
         <v>-3.6318503368006398E-2</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.3">
-      <c r="C19" s="6"/>
+    <row r="19" spans="18:23" x14ac:dyDescent="0.3">
       <c r="R19" s="1">
         <v>7011859.2964824103</v>
       </c>
-      <c r="S19" s="2"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="2"/>
+      <c r="S19" s="2">
+        <v>-3.3538447963377198E-5</v>
+      </c>
+      <c r="T19" s="1">
+        <v>-1.02005846894783E-4</v>
+      </c>
+      <c r="U19" s="2">
+        <v>5.5295207606862298E-6</v>
+      </c>
       <c r="V19" s="1">
         <v>0.41470357521621398</v>
       </c>
@@ -1111,13 +1224,19 @@
         <v>-5.34907635605412E-2</v>
       </c>
     </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="18:23" x14ac:dyDescent="0.3">
       <c r="R20" s="1">
         <v>7424321.6080401996</v>
       </c>
-      <c r="S20" s="2"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="2"/>
+      <c r="S20" s="2">
+        <v>-4.1127012498555401E-5</v>
+      </c>
+      <c r="T20" s="1">
+        <v>-1.01718901802756E-4</v>
+      </c>
+      <c r="U20" s="2">
+        <v>7.3958121899343498E-6</v>
+      </c>
       <c r="V20" s="1">
         <v>0.26866547442966299</v>
       </c>
@@ -1125,13 +1244,19 @@
         <v>-6.9002314575483198E-2</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="18:23" x14ac:dyDescent="0.3">
       <c r="R21" s="1">
         <v>7836783.9195979899</v>
       </c>
-      <c r="S21" s="2"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="2"/>
+      <c r="S21" s="2">
+        <v>-4.8669554652838501E-5</v>
+      </c>
+      <c r="T21" s="1">
+        <v>-1.0066183792514599E-4</v>
+      </c>
+      <c r="U21" s="2">
+        <v>9.1708823126929999E-6</v>
+      </c>
       <c r="V21" s="1">
         <v>0.123230665346493</v>
       </c>
@@ -1139,13 +1264,19 @@
         <v>-8.3167470845064803E-2</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="18:23" x14ac:dyDescent="0.3">
       <c r="R22" s="1">
         <v>8249246.2311557801</v>
       </c>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
+      <c r="S22" s="2">
+        <v>-5.6176103368070097E-5</v>
+      </c>
+      <c r="T22" s="2">
+        <v>-9.8743647666275198E-5</v>
+      </c>
+      <c r="U22" s="2">
+        <v>1.08627926052762E-5</v>
+      </c>
       <c r="V22" s="1">
         <v>6.2604152525303798</v>
       </c>
@@ -1153,13 +1284,19 @@
         <v>-9.6261435260588404E-2</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="18:23" x14ac:dyDescent="0.3">
       <c r="R23" s="1">
         <v>8661708.5427135695</v>
       </c>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
+      <c r="S23" s="2">
+        <v>-6.3641182168591202E-5</v>
+      </c>
+      <c r="T23" s="2">
+        <v>-9.5893896522964101E-5</v>
+      </c>
+      <c r="U23" s="2">
+        <v>1.2478205261951301E-5</v>
+      </c>
       <c r="V23" s="1">
         <v>6.1128400506656897</v>
       </c>
@@ -1167,13 +1304,19 @@
         <v>-0.10850212812524999</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="18:23" x14ac:dyDescent="0.3">
       <c r="R24" s="1">
         <v>9074170.8542713597</v>
       </c>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
+      <c r="S24" s="2">
+        <v>-7.1041202618732095E-5</v>
+      </c>
+      <c r="T24" s="2">
+        <v>-9.2065894643095399E-5</v>
+      </c>
+      <c r="U24" s="2">
+        <v>1.4022329333986899E-5</v>
+      </c>
       <c r="V24" s="1">
         <v>5.9628961650250103</v>
       </c>
@@ -1181,13 +1324,19 @@
         <v>-0.120041898802453</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="18:23" x14ac:dyDescent="0.3">
       <c r="R25" s="1">
         <v>9486633.16582915</v>
       </c>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
+      <c r="S25" s="2">
+        <v>-7.8332981842310994E-5</v>
+      </c>
+      <c r="T25" s="2">
+        <v>-8.7239164657485207E-5</v>
+      </c>
+      <c r="U25" s="2">
+        <v>1.5498891330369999E-5</v>
+      </c>
       <c r="V25" s="1">
         <v>5.8100480921619697</v>
       </c>
@@ -1195,13 +1344,19 @@
         <v>-0.13096610725396099</v>
       </c>
     </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="18:23" x14ac:dyDescent="0.3">
       <c r="R26" s="1">
         <v>9899095.4773869403</v>
       </c>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
+      <c r="S26" s="2">
+        <v>-8.5453512155127901E-5</v>
+      </c>
+      <c r="T26" s="2">
+        <v>-8.1421081964941404E-5</v>
+      </c>
+      <c r="U26" s="2">
+        <v>1.6910132722829599E-5</v>
+      </c>
       <c r="V26" s="1">
         <v>5.6540555427504202</v>
       </c>
@@ -1209,13 +1364,19 @@
         <v>-0.14129771258516399</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="18:23" x14ac:dyDescent="0.3">
       <c r="R27" s="1">
         <v>10311557.788944701</v>
       </c>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
+      <c r="S27" s="2">
+        <v>-9.2321040463070204E-5</v>
+      </c>
+      <c r="T27" s="2">
+        <v>-7.4647591658598097E-5</v>
+      </c>
+      <c r="U27" s="2">
+        <v>1.82568359667237E-5</v>
+      </c>
       <c r="V27" s="1">
         <v>5.4949980142517898</v>
       </c>
@@ -1223,13 +1384,19 @@
         <v>-0.151008233926304</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="18:23" x14ac:dyDescent="0.3">
       <c r="R28" s="1">
         <v>10724020.1005025</v>
       </c>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
+      <c r="S28" s="2">
+        <v>-9.8837438092930005E-5</v>
+      </c>
+      <c r="T28" s="2">
+        <v>-6.6982942161357995E-5</v>
+      </c>
+      <c r="U28" s="2">
+        <v>1.9538379740941601E-5</v>
+      </c>
       <c r="V28" s="1">
         <v>5.3332805239369101</v>
       </c>
@@ -1237,13 +1404,19 @@
         <v>-0.16003537477795901</v>
       </c>
     </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="18:23" x14ac:dyDescent="0.3">
       <c r="R29" s="1">
         <v>11136482.4120603</v>
       </c>
-      <c r="S29" s="1"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
+      <c r="S29" s="1">
+        <v>-1.04891763350832E-4</v>
+      </c>
+      <c r="T29" s="2">
+        <v>-5.85184169837972E-5</v>
+      </c>
+      <c r="U29" s="2">
+        <v>2.0752823159843799E-5</v>
+      </c>
       <c r="V29" s="1">
         <v>5.1696191235262399</v>
       </c>
@@ -1251,13 +1424,19 @@
         <v>-0.16830616825216399</v>
       </c>
     </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="18:23" x14ac:dyDescent="0.3">
       <c r="R30" s="1">
         <v>11548944.723618099</v>
       </c>
-      <c r="S30" s="1"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
+      <c r="S30" s="1">
+        <v>-1.1036484474952799E-4</v>
+      </c>
+      <c r="T30" s="2">
+        <v>-4.9370090080903298E-5</v>
+      </c>
+      <c r="U30" s="2">
+        <v>2.1897017756912301E-5</v>
+      </c>
       <c r="V30" s="1">
         <v>5.0050450047998201</v>
       </c>
@@ -1265,13 +1444,19 @@
         <v>-0.17576210252094299</v>
       </c>
     </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="18:23" x14ac:dyDescent="0.3">
       <c r="R31" s="1">
         <v>11961407.035175901</v>
       </c>
-      <c r="S31" s="1"/>
-      <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
+      <c r="S31" s="1">
+        <v>-1.15134647695833E-4</v>
+      </c>
+      <c r="T31" s="2">
+        <v>-3.9675674198743602E-5</v>
+      </c>
+      <c r="U31" s="2">
+        <v>2.2966745122636101E-5</v>
+      </c>
       <c r="V31" s="1">
         <v>4.8414203247043996</v>
       </c>
@@ -1279,13 +1464,19 @@
         <v>-0.18237577331723101</v>
       </c>
     </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="18:23" x14ac:dyDescent="0.3">
       <c r="R32" s="1">
         <v>12373869.3467337</v>
       </c>
-      <c r="S32" s="1"/>
-      <c r="T32" s="2"/>
-      <c r="U32" s="2"/>
+      <c r="S32" s="1">
+        <v>-1.19082136052564E-4</v>
+      </c>
+      <c r="T32" s="2">
+        <v>-2.9590572607190199E-5</v>
+      </c>
+      <c r="U32" s="2">
+        <v>2.3956877236291599E-5</v>
+      </c>
       <c r="V32" s="1">
         <v>4.7592419638881296</v>
       </c>
@@ -1297,9 +1488,15 @@
       <c r="R33" s="1">
         <v>12786331.6582915</v>
       </c>
-      <c r="S33" s="1"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
+      <c r="S33" s="1">
+        <v>-1.2209730597890001E-4</v>
+      </c>
+      <c r="T33" s="2">
+        <v>-1.9283280250735401E-5</v>
+      </c>
+      <c r="U33" s="2">
+        <v>2.4861555797371801E-5</v>
+      </c>
       <c r="V33" s="1">
         <v>4.9141688623642903</v>
       </c>
@@ -1311,9 +1508,15 @@
       <c r="R34" s="1">
         <v>13198793.969849201</v>
       </c>
-      <c r="S34" s="1"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
+      <c r="S34" s="1">
+        <v>-1.2408505516384299E-4</v>
+      </c>
+      <c r="T34" s="2">
+        <v>-8.9303086200249699E-6</v>
+      </c>
+      <c r="U34" s="2">
+        <v>2.5674386266731699E-5</v>
+      </c>
       <c r="V34" s="1">
         <v>5.07315981108255</v>
       </c>
@@ -1325,9 +1528,15 @@
       <c r="R35" s="1">
         <v>13611256.281407</v>
       </c>
-      <c r="S35" s="1"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
+      <c r="S35" s="1">
+        <v>-1.24970556936886E-4</v>
+      </c>
+      <c r="T35" s="2">
+        <v>1.28917187166063E-6</v>
+      </c>
+      <c r="U35" s="2">
+        <v>2.6388641892371299E-5</v>
+      </c>
       <c r="V35" s="1">
         <v>5.2294821739319097</v>
       </c>
@@ -1339,9 +1548,15 @@
       <c r="R36" s="1">
         <v>14023718.5929648</v>
       </c>
-      <c r="S36" s="1"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
+      <c r="S36" s="1">
+        <v>-1.2470383524730501E-4</v>
+      </c>
+      <c r="T36" s="2">
+        <v>1.11987683219343E-5</v>
+      </c>
+      <c r="U36" s="2">
+        <v>2.69974727343869E-5</v>
+      </c>
       <c r="V36" s="1">
         <v>5.3825090509290501</v>
       </c>
@@ -1353,9 +1568,15 @@
       <c r="R37" s="1">
         <v>14436180.9045226</v>
       </c>
-      <c r="S37" s="1"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
+      <c r="S37" s="1">
+        <v>-1.2326328122602701E-4</v>
+      </c>
+      <c r="T37" s="2">
+        <v>2.06301767371561E-5</v>
+      </c>
+      <c r="U37" s="2">
+        <v>2.7494114623515999E-5</v>
+      </c>
       <c r="V37" s="1">
         <v>5.5320797394871803</v>
       </c>
@@ -1367,9 +1588,15 @@
       <c r="R38" s="1">
         <v>14848643.216080399</v>
       </c>
-      <c r="S38" s="1"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
+      <c r="S38" s="1">
+        <v>-1.20657911844929E-4</v>
+      </c>
+      <c r="T38" s="2">
+        <v>2.9428173697074099E-5</v>
+      </c>
+      <c r="U38" s="2">
+        <v>2.78720930847357E-5</v>
+      </c>
       <c r="V38" s="1">
         <v>5.6782605561148696</v>
       </c>
@@ -1381,9 +1608,15 @@
       <c r="R39" s="1">
         <v>15261105.527638201</v>
       </c>
-      <c r="S39" s="1"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
+      <c r="S39" s="1">
+        <v>-1.16928241975328E-4</v>
+      </c>
+      <c r="T39" s="2">
+        <v>3.7455111109266603E-5</v>
+      </c>
+      <c r="U39" s="2">
+        <v>2.8125417520217001E-5</v>
+      </c>
       <c r="V39" s="1">
         <v>5.8212673707036098</v>
       </c>
@@ -1395,9 +1628,15 @@
       <c r="R40" s="1">
         <v>15673567.839196</v>
       </c>
-      <c r="S40" s="1"/>
-      <c r="T40" s="2"/>
-      <c r="U40" s="2"/>
+      <c r="S40" s="1">
+        <v>-1.12145718211931E-4</v>
+      </c>
+      <c r="T40" s="2">
+        <v>4.4594761436562098E-5</v>
+      </c>
+      <c r="U40" s="2">
+        <v>2.82487613561357E-5</v>
+      </c>
       <c r="V40" s="1">
         <v>5.96141440115154</v>
       </c>
@@ -1409,9 +1648,15 @@
       <c r="R41" s="1">
         <v>16086030.1507538</v>
       </c>
-      <c r="S41" s="1"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="2"/>
+      <c r="S41" s="1">
+        <v>-1.0641074120825E-4</v>
+      </c>
+      <c r="T41" s="2">
+        <v>5.0755390776398298E-5</v>
+      </c>
+      <c r="U41" s="2">
+        <v>2.8237624391199301E-5</v>
+      </c>
       <c r="V41" s="1">
         <v>6.09907452389134</v>
       </c>
@@ -1423,9 +1668,15 @@
       <c r="R42" s="1">
         <v>16498492.462311599</v>
       </c>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
+      <c r="S42" s="2">
+        <v>-9.9849378116712907E-5</v>
+      </c>
+      <c r="T42" s="2">
+        <v>5.5871970854675998E-5</v>
+      </c>
+      <c r="U42" s="2">
+        <v>2.8088474213022399E-5</v>
+      </c>
       <c r="V42" s="1">
         <v>6.23464838433702</v>
       </c>
@@ -1437,9 +1688,15 @@
       <c r="R43" s="1">
         <v>16910954.773869298</v>
       </c>
-      <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
-      <c r="U43" s="2"/>
+      <c r="S43" s="2">
+        <v>-9.2608933645798401E-5</v>
+      </c>
+      <c r="T43" s="2">
+        <v>5.9907476594738603E-5</v>
+      </c>
+      <c r="U43" s="2">
+        <v>2.7798864241150599E-5</v>
+      </c>
       <c r="V43" s="1">
         <v>8.5355395158962705E-2</v>
       </c>
@@ -1451,9 +1708,15 @@
       <c r="R44" s="1">
         <v>17323417.085427102</v>
       </c>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
-      <c r="U44" s="2"/>
+      <c r="S44" s="2">
+        <v>-8.4852603575657899E-5</v>
+      </c>
+      <c r="T44" s="2">
+        <v>6.2853251739722698E-5</v>
+      </c>
+      <c r="U44" s="2">
+        <v>2.7367526681630099E-5</v>
+      </c>
       <c r="V44" s="1">
         <v>0.217956697760151</v>
       </c>
@@ -1465,9 +1728,15 @@
       <c r="R45" s="1">
         <v>17735879.396984901</v>
       </c>
-      <c r="S45" s="2"/>
-      <c r="T45" s="2"/>
-      <c r="U45" s="2"/>
+      <c r="S45" s="2">
+        <v>-7.6753475593200607E-5</v>
+      </c>
+      <c r="T45" s="2">
+        <v>6.4728459509228202E-5</v>
+      </c>
+      <c r="U45" s="2">
+        <v>2.6794439407740101E-5</v>
+      </c>
       <c r="V45" s="1">
         <v>0.34962864633590801</v>
       </c>
@@ -1479,9 +1748,15 @@
       <c r="R46" s="1">
         <v>18148341.708542701</v>
       </c>
-      <c r="S46" s="2"/>
-      <c r="T46" s="2"/>
-      <c r="U46" s="2"/>
+      <c r="S46" s="2">
+        <v>-6.8488167362126801E-5</v>
+      </c>
+      <c r="T46" s="2">
+        <v>6.5578667144028404E-5</v>
+      </c>
+      <c r="U46" s="2">
+        <v>2.60808664876764E-5</v>
+      </c>
       <c r="V46" s="1">
         <v>0.48069128362320401</v>
       </c>
@@ -1493,9 +1768,15 @@
       <c r="R47" s="1">
         <v>18560804.0201005</v>
       </c>
-      <c r="S47" s="2"/>
-      <c r="T47" s="2"/>
-      <c r="U47" s="2"/>
+      <c r="S47" s="2">
+        <v>-6.0230400275986399E-5</v>
+      </c>
+      <c r="T47" s="2">
+        <v>6.5473641376411902E-5</v>
+      </c>
+      <c r="U47" s="2">
+        <v>2.52293727391414E-5</v>
+      </c>
       <c r="V47" s="1">
         <v>0.61141086374412201</v>
       </c>
@@ -1507,9 +1788,15 @@
       <c r="R48" s="1">
         <v>18973266.3316583</v>
       </c>
-      <c r="S48" s="2"/>
-      <c r="T48" s="2"/>
-      <c r="U48" s="2"/>
+      <c r="S48" s="2">
+        <v>-5.2144799847827498E-5</v>
+      </c>
+      <c r="T48" s="2">
+        <v>6.4504455569209897E-5</v>
+      </c>
+      <c r="U48" s="2">
+        <v>2.4243813284019501E-5</v>
+      </c>
       <c r="V48" s="1">
         <v>0.74198745788799803</v>
       </c>
@@ -1521,9 +1808,15 @@
       <c r="R49" s="1">
         <v>19385728.6432161</v>
       </c>
-      <c r="S49" s="2"/>
-      <c r="T49" s="2"/>
-      <c r="U49" s="2"/>
+      <c r="S49" s="2">
+        <v>-4.4381191592862798E-5</v>
+      </c>
+      <c r="T49" s="2">
+        <v>6.27800279740519E-5</v>
+      </c>
+      <c r="U49" s="2">
+        <v>2.31292995895796E-5</v>
+      </c>
       <c r="V49" s="1">
         <v>0.87254243336839199</v>
       </c>
@@ -1535,9 +1828,15 @@
       <c r="R50" s="1">
         <v>19798190.954773899</v>
       </c>
-      <c r="S50" s="2"/>
-      <c r="T50" s="2"/>
-      <c r="U50" s="2"/>
+      <c r="S50" s="2">
+        <v>-3.70696267449954E-5</v>
+      </c>
+      <c r="T50" s="2">
+        <v>6.0423223997592102E-5</v>
+      </c>
+      <c r="U50" s="2">
+        <v>2.1892143906941E-5</v>
+      </c>
       <c r="V50" s="1">
         <v>1.00310785490563</v>
       </c>
@@ -1549,9 +1848,15 @@
       <c r="R51" s="1">
         <v>20210653.266331699</v>
       </c>
-      <c r="S51" s="2"/>
-      <c r="T51" s="2"/>
-      <c r="U51" s="2"/>
+      <c r="S51" s="2">
+        <v>-3.0316327944134599E-5</v>
+      </c>
+      <c r="T51" s="2">
+        <v>5.7566663492000603E-5</v>
+      </c>
+      <c r="U51" s="2">
+        <v>2.0539784348679401E-5</v>
+      </c>
       <c r="V51" s="1">
         <v>1.1336255559767701</v>
       </c>
@@ -1563,9 +1868,15 @@
       <c r="R52" s="1">
         <v>20623115.577889401</v>
       </c>
-      <c r="S52" s="2"/>
-      <c r="T52" s="2"/>
-      <c r="U52" s="2"/>
+      <c r="S52" s="2">
+        <v>-2.4200694194471199E-5</v>
+      </c>
+      <c r="T52" s="2">
+        <v>5.4348377051403502E-5</v>
+      </c>
+      <c r="U52" s="2">
+        <v>1.90806930855705E-5</v>
+      </c>
       <c r="V52" s="1">
         <v>1.2639878076443201</v>
       </c>
@@ -1577,9 +1888,15 @@
       <c r="R53" s="1">
         <v>21035577.889447201</v>
       </c>
-      <c r="S53" s="2"/>
-      <c r="T53" s="2"/>
-      <c r="U53" s="2"/>
+      <c r="S53" s="2">
+        <v>-1.87734500787401E-5</v>
+      </c>
+      <c r="T53" s="2">
+        <v>5.0907453410012503E-5</v>
+      </c>
+      <c r="U53" s="2">
+        <v>1.7524270291483199E-5</v>
+      </c>
       <c r="V53" s="1">
         <v>1.3943244171460101</v>
       </c>
@@ -1591,9 +1908,15 @@
       <c r="R54" s="1">
         <v>21448040.201005001</v>
       </c>
-      <c r="S54" s="2"/>
-      <c r="T54" s="2"/>
-      <c r="U54" s="2"/>
+      <c r="S54" s="2">
+        <v>-1.4055969473495799E-5</v>
+      </c>
+      <c r="T54" s="2">
+        <v>4.73798137388018E-5</v>
+      </c>
+      <c r="U54" s="2">
+        <v>1.5880726532202801E-5</v>
+      </c>
       <c r="V54" s="1">
         <v>1.5298338689787001</v>
       </c>
@@ -1605,9 +1928,15 @@
       <c r="R55" s="1">
         <v>21860502.5125628</v>
       </c>
-      <c r="S55" s="2"/>
-      <c r="T55" s="2"/>
-      <c r="U55" s="2"/>
+      <c r="S55" s="2">
+        <v>-1.00407516233582E-5</v>
+      </c>
+      <c r="T55" s="2">
+        <v>4.3894238453291601E-5</v>
+      </c>
+      <c r="U55" s="2">
+        <v>1.416095628763E-5</v>
+      </c>
       <c r="V55" s="1">
         <v>1.50369987811634</v>
       </c>
@@ -1619,9 +1948,15 @@
       <c r="R56" s="1">
         <v>22272964.8241206</v>
       </c>
-      <c r="S56" s="2"/>
-      <c r="T56" s="2"/>
-      <c r="U56" s="2"/>
+      <c r="S56" s="2">
+        <v>-6.6929797687807302E-6</v>
+      </c>
+      <c r="T56" s="2">
+        <v>4.0568758673556102E-5</v>
+      </c>
+      <c r="U56" s="2">
+        <v>1.2376405227892399E-5</v>
+      </c>
       <c r="V56" s="1">
         <v>1.3761898126310199</v>
       </c>
@@ -1633,9 +1968,15 @@
       <c r="R57" s="1">
         <v>22685427.135678399</v>
       </c>
-      <c r="S57" s="2"/>
-      <c r="T57" s="2"/>
-      <c r="U57" s="2"/>
+      <c r="S57" s="2">
+        <v>-3.9530514553479502E-6</v>
+      </c>
+      <c r="T57" s="2">
+        <v>3.75075083512544E-5</v>
+      </c>
+      <c r="U57" s="2">
+        <v>1.05389337437644E-5</v>
+      </c>
       <c r="V57" s="1">
         <v>1.2553587515223501</v>
       </c>
@@ -1647,9 +1988,15 @@
       <c r="R58" s="1">
         <v>23097889.447236199</v>
       </c>
-      <c r="S58" s="2"/>
-      <c r="T58" s="2"/>
-      <c r="U58" s="2"/>
+      <c r="S58" s="2">
+        <v>-1.73993651242683E-6</v>
+      </c>
+      <c r="T58" s="2">
+        <v>3.4798114948163802E-5</v>
+      </c>
+      <c r="U58" s="2">
+        <v>8.6606790717998396E-6</v>
+      </c>
       <c r="V58" s="1">
         <v>1.13897975052759</v>
       </c>
@@ -1661,9 +2008,15 @@
       <c r="R59" s="1">
         <v>23510351.758793999</v>
       </c>
-      <c r="S59" s="2"/>
-      <c r="T59" s="2"/>
-      <c r="U59" s="2"/>
+      <c r="S59" s="2">
+        <v>4.4805744890928903E-8</v>
+      </c>
+      <c r="T59" s="2">
+        <v>3.25096870643444E-5</v>
+      </c>
+      <c r="U59" s="2">
+        <v>6.7539181657594298E-6</v>
+      </c>
       <c r="V59" s="1">
         <v>1.0269119939589699</v>
       </c>
@@ -1675,9 +2028,15 @@
       <c r="R60" s="1">
         <v>23922814.070351802</v>
       </c>
-      <c r="S60" s="2"/>
-      <c r="T60" s="2"/>
-      <c r="U60" s="2"/>
+      <c r="S60" s="2">
+        <v>1.5125340053111799E-6</v>
+      </c>
+      <c r="T60" s="2">
+        <v>3.06914372017419E-5</v>
+      </c>
+      <c r="U60" s="2">
+        <v>4.8309332584263404E-6</v>
+      </c>
       <c r="V60" s="1">
         <v>0.91879451173418802</v>
       </c>
@@ -1689,9 +2048,15 @@
       <c r="R61" s="1">
         <v>24335276.381909601</v>
       </c>
-      <c r="S61" s="2"/>
-      <c r="T61" s="2"/>
-      <c r="U61" s="2"/>
+      <c r="S61" s="2">
+        <v>2.78274776814367E-6</v>
+      </c>
+      <c r="T61" s="2">
+        <v>2.9371957507721999E-5</v>
+      </c>
+      <c r="U61" s="2">
+        <v>2.9038818408008502E-6</v>
+      </c>
       <c r="V61" s="1">
         <v>0.81375301038361103</v>
       </c>
@@ -1703,9 +2068,15 @@
       <c r="R62" s="1">
         <v>24747738.6934673</v>
       </c>
-      <c r="S62" s="2"/>
-      <c r="T62" s="2"/>
-      <c r="U62" s="2"/>
+      <c r="S62" s="2">
+        <v>3.97821464305373E-6</v>
+      </c>
+      <c r="T62" s="2">
+        <v>2.85591464314257E-5</v>
+      </c>
+      <c r="U62" s="2">
+        <v>9.8467256671129494E-7</v>
+      </c>
       <c r="V62" s="1">
         <v>0.71040274526963199</v>
       </c>
@@ -1717,9 +2088,15 @@
       <c r="R63" s="1">
         <v>25160201.0050251</v>
       </c>
-      <c r="S63" s="2"/>
-      <c r="T63" s="2"/>
-      <c r="U63" s="2"/>
+      <c r="S63" s="2">
+        <v>5.2201826093140497E-6</v>
+      </c>
+      <c r="T63" s="2">
+        <v>2.8240765249205499E-5</v>
+      </c>
+      <c r="U63" s="2">
+        <v>-9.1515162358131299E-7</v>
+      </c>
       <c r="V63" s="1">
         <v>0.607057898685602</v>
       </c>
@@ -1731,9 +2108,15 @@
       <c r="R64" s="1">
         <v>25572663.3165829</v>
       </c>
-      <c r="S64" s="2"/>
-      <c r="T64" s="2"/>
-      <c r="U64" s="2"/>
+      <c r="S64" s="2">
+        <v>6.6238428480945403E-6</v>
+      </c>
+      <c r="T64" s="2">
+        <v>2.83855858260832E-5</v>
+      </c>
+      <c r="U64" s="2">
+        <v>-2.7845220722081001E-6</v>
+      </c>
       <c r="V64" s="1">
         <v>0.50207943676481803</v>
       </c>
@@ -1745,9 +2128,15 @@
       <c r="R65" s="1">
         <v>25985125.628140699</v>
       </c>
-      <c r="S65" s="2"/>
-      <c r="T65" s="2"/>
-      <c r="U65" s="2"/>
+      <c r="S65" s="2">
+        <v>8.2941890060081394E-6</v>
+      </c>
+      <c r="T65" s="2">
+        <v>2.8945075168599401E-5</v>
+      </c>
+      <c r="U65" s="2">
+        <v>-4.6129437683088399E-6</v>
+      </c>
       <c r="V65" s="1">
         <v>0.39422898139812101</v>
       </c>
@@ -1759,9 +2148,15 @@
       <c r="R66" s="1">
         <v>26397587.939698499</v>
       </c>
-      <c r="S66" s="2"/>
-      <c r="T66" s="2"/>
-      <c r="U66" s="2"/>
+      <c r="S66" s="2">
+        <v>1.03223953784276E-5</v>
+      </c>
+      <c r="T66" s="2">
+        <v>2.98555486192937E-5</v>
+      </c>
+      <c r="U66" s="2">
+        <v>-6.3905847883177404E-6</v>
+      </c>
       <c r="V66" s="1">
         <v>0.28289016919429599</v>
       </c>
@@ -1773,9 +2168,15 @@
       <c r="R67" s="1">
         <v>26810050.251256298</v>
       </c>
-      <c r="S67" s="2"/>
-      <c r="T67" s="2"/>
-      <c r="U67" s="2"/>
+      <c r="S67" s="2">
+        <v>1.2782810781142899E-5</v>
+      </c>
+      <c r="T67" s="2">
+        <v>3.10407122079925E-5</v>
+      </c>
+      <c r="U67" s="2">
+        <v>-8.1083552516343596E-6</v>
+      </c>
       <c r="V67" s="1">
         <v>0.168093451265972</v>
       </c>
@@ -1787,9 +2188,15 @@
       <c r="R68" s="1">
         <v>27222512.562814102</v>
       </c>
-      <c r="S68" s="2"/>
-      <c r="T68" s="2"/>
-      <c r="U68" s="2"/>
+      <c r="S68" s="2">
+        <v>1.5730637995877401E-5</v>
+      </c>
+      <c r="T68" s="2">
+        <v>3.2414505909279101E-5</v>
+      </c>
+      <c r="U68" s="2">
+        <v>-9.7579753742809797E-6</v>
+      </c>
       <c r="V68" s="1">
         <v>5.0377869325942501E-2</v>
       </c>
@@ -1801,9 +2208,15 @@
       <c r="R69" s="1">
         <v>27634974.874371901</v>
       </c>
-      <c r="S69" s="2"/>
-      <c r="T69" s="2"/>
-      <c r="U69" s="2"/>
+      <c r="S69" s="2">
+        <v>1.9200341694239901E-5</v>
+      </c>
+      <c r="T69" s="2">
+        <v>3.3884153494906797E-5</v>
+      </c>
+      <c r="U69" s="2">
+        <v>-1.1332032329576E-5</v>
+      </c>
       <c r="V69" s="1">
         <v>6.2137630654912996</v>
       </c>
@@ -1815,9 +2228,15 @@
       <c r="R70" s="1">
         <v>28047437.185929701</v>
       </c>
-      <c r="S70" s="2"/>
-      <c r="T70" s="2"/>
-      <c r="U70" s="2"/>
+      <c r="S70" s="2">
+        <v>2.3204801585057001E-5</v>
+      </c>
+      <c r="T70" s="2">
+        <v>3.5353321386689402E-5</v>
+      </c>
+      <c r="U70" s="2">
+        <v>-1.2824025736005699E-5</v>
+      </c>
       <c r="V70" s="1">
         <v>6.0928030131237803</v>
       </c>
@@ -1829,9 +2248,15 @@
       <c r="R71" s="1">
         <v>28459899.4974874</v>
       </c>
-      <c r="S71" s="2"/>
-      <c r="T71" s="2"/>
-      <c r="U71" s="2"/>
+      <c r="S71" s="2">
+        <v>2.7735202950293399E-5</v>
+      </c>
+      <c r="T71" s="2">
+        <v>3.6725288420826798E-5</v>
+      </c>
+      <c r="U71" s="2">
+        <v>-1.4228401689987699E-5</v>
+      </c>
       <c r="V71" s="1">
         <v>5.9715479571900998</v>
       </c>
@@ -1843,9 +2268,15 @@
       <c r="R72" s="1">
         <v>28872361.809045199</v>
       </c>
-      <c r="S72" s="2"/>
-      <c r="T72" s="2"/>
-      <c r="U72" s="2"/>
+      <c r="S72" s="2">
+        <v>3.2761634326078799E-5</v>
+      </c>
+      <c r="T72" s="2">
+        <v>3.7906030681508901E-5</v>
+      </c>
+      <c r="U72" s="2">
+        <v>-1.5540575347113499E-5</v>
+      </c>
       <c r="V72" s="1">
         <v>5.8507187661243396</v>
       </c>
@@ -1857,9 +2288,15 @@
       <c r="R73" s="1">
         <v>29284824.120602999</v>
       </c>
-      <c r="S73" s="2"/>
-      <c r="T73" s="2"/>
-      <c r="U73" s="2"/>
+      <c r="S73" s="2">
+        <v>3.8234342285889899E-5</v>
+      </c>
+      <c r="T73" s="2">
+        <v>3.8807130443449597E-5</v>
+      </c>
+      <c r="U73" s="2">
+        <v>-1.67569421319764E-5</v>
+      </c>
       <c r="V73" s="1">
         <v>5.7308619515198602</v>
       </c>
@@ -1871,9 +2308,15 @@
       <c r="R74" s="1">
         <v>29697286.432160798</v>
       </c>
-      <c r="S74" s="2"/>
-      <c r="T74" s="2"/>
-      <c r="U74" s="2"/>
+      <c r="S74" s="2">
+        <v>4.4085576380215903E-5</v>
+      </c>
+      <c r="T74" s="2">
+        <v>3.9348425620229202E-5</v>
+      </c>
+      <c r="U74" s="2">
+        <v>-1.78748777261859E-5</v>
+      </c>
       <c r="V74" s="1">
         <v>5.6123552241351797</v>
       </c>
@@ -1885,9 +2328,15 @@
       <c r="R75" s="1">
         <v>30109748.743718602</v>
       </c>
-      <c r="S75" s="2"/>
-      <c r="T75" s="2"/>
-      <c r="U75" s="2"/>
+      <c r="S75" s="2">
+        <v>5.0231943448927401E-5</v>
+      </c>
+      <c r="T75" s="2">
+        <v>3.9460325732002099E-5</v>
+      </c>
+      <c r="U75" s="2">
+        <v>-1.8892727049050801E-5</v>
+      </c>
       <c r="V75" s="1">
         <v>5.4954325812299203</v>
       </c>
@@ -1899,9 +2348,15 @@
       <c r="R76" s="1">
         <v>30522211.055276401</v>
       </c>
-      <c r="S76" s="2"/>
-      <c r="T76" s="2"/>
-      <c r="U76" s="2"/>
+      <c r="S76" s="2">
+        <v>5.6577179805085599E-5</v>
+      </c>
+      <c r="T76" s="2">
+        <v>3.9085732018008298E-5</v>
+      </c>
+      <c r="U76" s="2">
+        <v>-1.9809782507986199E-5</v>
+      </c>
       <c r="V76" s="1">
         <v>5.3802182175472799</v>
       </c>
@@ -1913,9 +2368,15 @@
       <c r="R77" s="1">
         <v>30934673.366834201</v>
       </c>
-      <c r="S77" s="2"/>
-      <c r="T77" s="2"/>
-      <c r="U77" s="2"/>
+      <c r="S77" s="2">
+        <v>6.3015242168264804E-5</v>
+      </c>
+      <c r="T77" s="2">
+        <v>3.81815126108747E-5</v>
+      </c>
+      <c r="U77" s="2">
+        <v>-2.0626251858159699E-5</v>
+      </c>
       <c r="V77" s="1">
         <v>5.2667653875565099</v>
       </c>
@@ -1927,9 +2388,15 @@
       <c r="R78" s="1">
         <v>31347135.678392</v>
       </c>
-      <c r="S78" s="2"/>
-      <c r="T78" s="2"/>
-      <c r="U78" s="2"/>
+      <c r="S78" s="2">
+        <v>6.9433613612970301E-5</v>
+      </c>
+      <c r="T78" s="2">
+        <v>3.6719498301660499E-5</v>
+      </c>
+      <c r="U78" s="2">
+        <v>-2.1343216075218501E-5</v>
+      </c>
       <c r="V78" s="1">
         <v>5.1551062380794201</v>
       </c>
@@ -1941,9 +2408,15 @@
       <c r="R79" s="1">
         <v>31759597.9899498</v>
       </c>
-      <c r="S79" s="2"/>
-      <c r="T79" s="2"/>
-      <c r="U79" s="2"/>
+      <c r="S79" s="2">
+        <v>7.5716719057839101E-5</v>
+      </c>
+      <c r="T79" s="2">
+        <v>3.4686979956049297E-5</v>
+      </c>
+      <c r="U79" s="2">
+        <v>-2.1962577712839299E-5</v>
+      </c>
       <c r="V79" s="1">
         <v>5.0453455101344904</v>
       </c>
@@ -1955,9 +2428,15 @@
       <c r="R80" s="1">
         <v>32172060.301507499</v>
       </c>
-      <c r="S80" s="2"/>
-      <c r="T80" s="2"/>
-      <c r="U80" s="2"/>
+      <c r="S80" s="2">
+        <v>8.1749345792623599E-5</v>
+      </c>
+      <c r="T80" s="2">
+        <v>3.2086704657002898E-5</v>
+      </c>
+      <c r="U80" s="2">
+        <v>-2.2487000289684401E-5</v>
+      </c>
       <c r="V80" s="1">
         <v>4.9379642429087598</v>
       </c>
@@ -1969,9 +2448,15 @@
       <c r="R81" s="1">
         <v>32584522.613065299</v>
       </c>
-      <c r="S81" s="2"/>
-      <c r="T81" s="2"/>
-      <c r="U81" s="2"/>
+      <c r="S81" s="2">
+        <v>8.7419968037729604E-5</v>
+      </c>
+      <c r="T81" s="2">
+        <v>2.89363836836126E-5</v>
+      </c>
+      <c r="U81" s="2">
+        <v>-2.2919839329134801E-5</v>
+      </c>
       <c r="V81" s="1">
         <v>4.8357506776260397</v>
       </c>
@@ -1983,9 +2468,15 @@
       <c r="R82" s="1">
         <v>32996984.924623098</v>
       </c>
-      <c r="S82" s="2"/>
-      <c r="T82" s="2"/>
-      <c r="U82" s="2"/>
+      <c r="S82" s="2">
+        <v>9.2623880365413894E-5</v>
+      </c>
+      <c r="T82" s="2">
+        <v>2.5267741008210999E-5</v>
+      </c>
+      <c r="U82" s="2">
+        <v>-2.32650657604211E-5</v>
+      </c>
       <c r="V82" s="1">
         <v>4.8789595610627003</v>
       </c>
@@ -1997,9 +2488,15 @@
       <c r="R83" s="1">
         <v>33409447.236180902</v>
       </c>
-      <c r="S83" s="2"/>
-      <c r="T83" s="2"/>
-      <c r="U83" s="2"/>
+      <c r="S83" s="2">
+        <v>9.7266052782152903E-5</v>
+      </c>
+      <c r="T83" s="2">
+        <v>2.11251456152729E-5</v>
+      </c>
+      <c r="U83" s="2">
+        <v>-2.3527182481561E-5</v>
+      </c>
       <c r="V83" s="1">
         <v>4.8294455748705403</v>
       </c>
@@ -2011,9 +2508,15 @@
       <c r="R84" s="1">
         <v>33821909.547738701</v>
       </c>
-      <c r="S84" s="1"/>
-      <c r="T84" s="2"/>
-      <c r="U84" s="2"/>
+      <c r="S84" s="1">
+        <v>1.01263630173316E-4</v>
+      </c>
+      <c r="T84" s="2">
+        <v>1.6563884135397998E-5</v>
+      </c>
+      <c r="U84" s="2">
+        <v>-2.3711134982307599E-5</v>
+      </c>
       <c r="V84" s="1">
         <v>4.9280206347337199</v>
       </c>
@@ -2025,9 +2528,15 @@
       <c r="R85" s="1">
         <v>34234371.859296501</v>
       </c>
-      <c r="S85" s="1"/>
-      <c r="T85" s="2"/>
-      <c r="U85" s="2"/>
+      <c r="S85" s="1">
+        <v>1.04548010430001E-4</v>
+      </c>
+      <c r="T85" s="2">
+        <v>1.1648141587868801E-5</v>
+      </c>
+      <c r="U85" s="2">
+        <v>-2.3822217028044299E-5</v>
+      </c>
       <c r="V85" s="1">
         <v>5.0310450142790701</v>
       </c>
@@ -2039,9 +2548,15 @@
       <c r="R86" s="1">
         <v>34646834.1708543</v>
       </c>
-      <c r="S86" s="1"/>
-      <c r="T86" s="2"/>
-      <c r="U86" s="2"/>
+      <c r="S86" s="1">
+        <v>1.0706644868570301E-4</v>
+      </c>
+      <c r="T86" s="2">
+        <v>6.4487670191265102E-6</v>
+      </c>
+      <c r="U86" s="2">
+        <v>-2.3865972511505699E-5</v>
+      </c>
       <c r="V86" s="1">
         <v>5.13496936464841</v>
       </c>
@@ -2053,9 +2568,15 @@
       <c r="R87" s="1">
         <v>35059296.4824121</v>
       </c>
-      <c r="S87" s="1"/>
-      <c r="T87" s="2"/>
-      <c r="U87" s="2"/>
+      <c r="S87" s="1">
+        <v>1.08783149437438E-4</v>
+      </c>
+      <c r="T87" s="2">
+        <v>1.0409071537252401E-6</v>
+      </c>
+      <c r="U87" s="2">
+        <v>-2.3848094686007301E-5</v>
+      </c>
       <c r="V87" s="1">
         <v>5.2392673695210199</v>
       </c>
@@ -2067,9 +2588,15 @@
       <c r="R88" s="1">
         <v>35471758.793969899</v>
       </c>
-      <c r="S88" s="1"/>
-      <c r="T88" s="2"/>
-      <c r="U88" s="2"/>
+      <c r="S88" s="1">
+        <v>1.09679823637024E-4</v>
+      </c>
+      <c r="T88" s="2">
+        <v>-4.4984054408448301E-6</v>
+      </c>
+      <c r="U88" s="2">
+        <v>-2.3774324098523799E-5</v>
+      </c>
       <c r="V88" s="1">
         <v>5.3438947924789604</v>
       </c>
@@ -2081,9 +2608,15 @@
       <c r="R89" s="1">
         <v>35884221.105527602</v>
       </c>
-      <c r="S89" s="1"/>
-      <c r="T89" s="2"/>
-      <c r="U89" s="2"/>
+      <c r="S89" s="1">
+        <v>1.0975570380267E-4</v>
+      </c>
+      <c r="T89" s="2">
+        <v>-1.00926229189822E-5</v>
+      </c>
+      <c r="U89" s="2">
+        <v>-2.3650346639841399E-5</v>
+      </c>
       <c r="V89" s="1">
         <v>5.4489423290249102</v>
       </c>
@@ -2095,9 +2628,15 @@
       <c r="R90" s="1">
         <v>36296683.417085402</v>
       </c>
-      <c r="S90" s="1"/>
-      <c r="T90" s="2"/>
-      <c r="U90" s="2"/>
+      <c r="S90" s="1">
+        <v>1.0902702647080801E-4</v>
+      </c>
+      <c r="T90" s="2">
+        <v>-1.5667927644018699E-5</v>
+      </c>
+      <c r="U90" s="2">
+        <v>-2.3481693217939998E-5</v>
+      </c>
       <c r="V90" s="1">
         <v>5.5545494882890702</v>
       </c>
@@ -2109,9 +2648,15 @@
       <c r="R91" s="1">
         <v>36709145.728643201</v>
       </c>
-      <c r="S91" s="1"/>
-      <c r="T91" s="2"/>
-      <c r="U91" s="2"/>
+      <c r="S91" s="1">
+        <v>1.07526007495354E-4</v>
+      </c>
+      <c r="T91" s="2">
+        <v>-2.1155274894758601E-5</v>
+      </c>
+      <c r="U91" s="2">
+        <v>-2.32736426350349E-5</v>
+      </c>
       <c r="V91" s="1">
         <v>5.6608745265218596</v>
       </c>
@@ -2123,9 +2668,15 @@
       <c r="R92" s="1">
         <v>37121608.040201001</v>
       </c>
-      <c r="S92" s="1"/>
-      <c r="T92" s="2"/>
-      <c r="U92" s="2"/>
+      <c r="S92" s="1">
+        <v>1.05299351379205E-4</v>
+      </c>
+      <c r="T92" s="2">
+        <v>-2.6492164171802E-5</v>
+      </c>
+      <c r="U92" s="2">
+        <v>-2.30311293032991E-5</v>
+      </c>
       <c r="V92" s="1">
         <v>5.7680800882830301</v>
       </c>
@@ -2137,9 +2688,15 @@
       <c r="R93" s="1">
         <v>37534070.3517588</v>
       </c>
-      <c r="S93" s="1"/>
-      <c r="T93" s="2"/>
-      <c r="U93" s="2"/>
+      <c r="S93" s="1">
+        <v>1.0240635053270199E-4</v>
+      </c>
+      <c r="T93" s="2">
+        <v>-3.1624082234705103E-5</v>
+      </c>
+      <c r="U93" s="2">
+        <v>-2.2758657463947601E-5</v>
+      </c>
       <c r="V93" s="1">
         <v>5.8763235066606896</v>
       </c>
@@ -2151,9 +2708,15 @@
       <c r="R94" s="1">
         <v>37946532.6633166</v>
       </c>
-      <c r="S94" s="2"/>
-      <c r="T94" s="2"/>
-      <c r="U94" s="2"/>
+      <c r="S94" s="2">
+        <v>9.8916643615079797E-5</v>
+      </c>
+      <c r="T94" s="2">
+        <v>-3.6505574984366702E-5</v>
+      </c>
+      <c r="U94" s="2">
+        <v>-2.24602235738545E-5</v>
+      </c>
       <c r="V94" s="1">
         <v>5.9857479995608802</v>
       </c>
@@ -2165,9 +2728,15 @@
       <c r="R95" s="1">
         <v>38358994.9748744</v>
       </c>
-      <c r="S95" s="2"/>
-      <c r="T95" s="2"/>
-      <c r="U95" s="2"/>
+      <c r="S95" s="2">
+        <v>9.4907713441707097E-5</v>
+      </c>
+      <c r="T95" s="2">
+        <v>-4.1100920969902597E-5</v>
+      </c>
+      <c r="U95" s="2">
+        <v>-2.21392484882068E-5</v>
+      </c>
       <c r="V95" s="1">
         <v>6.0964733384957999</v>
       </c>
@@ -2179,9 +2748,15 @@
       <c r="R96" s="1">
         <v>38771457.286432199</v>
       </c>
-      <c r="S96" s="2"/>
-      <c r="T96" s="2"/>
-      <c r="U96" s="2"/>
+      <c r="S96" s="2">
+        <v>9.0462213859147895E-5</v>
+      </c>
+      <c r="T96" s="2">
+        <v>-4.5384396001312001E-5</v>
+      </c>
+      <c r="U96" s="2">
+        <v>-2.17985209924293E-5</v>
+      </c>
       <c r="V96" s="1">
         <v>6.2085855865594297</v>
       </c>
@@ -2193,9 +2768,15 @@
       <c r="R97" s="1">
         <v>39183919.597989999</v>
       </c>
-      <c r="S97" s="2"/>
-      <c r="T97" s="2"/>
-      <c r="U97" s="2"/>
+      <c r="S97" s="2">
+        <v>8.5665221067724104E-5</v>
+      </c>
+      <c r="T97" s="2">
+        <v>-4.93401353738434E-5</v>
+      </c>
+      <c r="U97" s="2">
+        <v>-2.14401541180711E-5</v>
+      </c>
       <c r="V97" s="1">
         <v>3.89408655314573E-2</v>
       </c>
@@ -2207,9 +2788,15 @@
       <c r="R98" s="1">
         <v>39596381.909547701</v>
       </c>
-      <c r="S98" s="2"/>
-      <c r="T98" s="2"/>
-      <c r="U98" s="2"/>
+      <c r="S98" s="2">
+        <v>8.0601507735103306E-5</v>
+      </c>
+      <c r="T98" s="2">
+        <v>-5.29616168090043E-5</v>
+      </c>
+      <c r="U98" s="2">
+        <v>-2.10655555130827E-5</v>
+      </c>
       <c r="V98" s="1">
         <v>0.15389587041630601</v>
       </c>
@@ -2221,9 +2808,15 @@
       <c r="R99" s="1">
         <v>40008844.221105501</v>
       </c>
-      <c r="S99" s="2"/>
-      <c r="T99" s="2"/>
-      <c r="U99" s="2"/>
+      <c r="S99" s="2">
+        <v>7.5352937616524006E-5</v>
+      </c>
+      <c r="T99" s="2">
+        <v>-5.6250802639085199E-5</v>
+      </c>
+      <c r="U99" s="2">
+        <v>-2.0675412925803499E-5</v>
+      </c>
       <c r="V99" s="1">
         <v>0.27018699294899901</v>
       </c>
@@ -2235,9 +2828,15 @@
       <c r="R100" s="1">
         <v>40421306.532663301</v>
       </c>
-      <c r="S100" s="2"/>
-      <c r="T100" s="2"/>
-      <c r="U100" s="2"/>
+      <c r="S100" s="2">
+        <v>6.9996074114340098E-5</v>
+      </c>
+      <c r="T100" s="2">
+        <v>-5.9216993299333603E-5</v>
+      </c>
+      <c r="U100" s="2">
+        <v>-2.0269695604749001E-5</v>
+      </c>
       <c r="V100" s="1">
         <v>0.38766616724924102</v>
       </c>
@@ -2249,9 +2848,15 @@
       <c r="R101" s="1">
         <v>40833768.8442211</v>
       </c>
-      <c r="S101" s="2"/>
-      <c r="T101" s="2"/>
-      <c r="U101" s="2"/>
+      <c r="S101" s="2">
+        <v>6.4600088252956305E-5</v>
+      </c>
+      <c r="T101" s="2">
+        <v>-6.1875455210428799E-5</v>
+      </c>
+      <c r="U101" s="2">
+        <v>-1.9847672115477499E-5</v>
+      </c>
       <c r="V101" s="1">
         <v>0.50611604606585003</v>
       </c>
@@ -2263,9 +2868,15 @@
       <c r="R102" s="1">
         <v>41246231.1557789</v>
       </c>
-      <c r="S102" s="2"/>
-      <c r="T102" s="2"/>
-      <c r="U102" s="2"/>
+      <c r="S102" s="2">
+        <v>5.9225040053639302E-5</v>
+      </c>
+      <c r="T102" s="2">
+        <v>-6.4245894119856E-5</v>
+      </c>
+      <c r="U102" s="2">
+        <v>-1.9407944736164301E-5</v>
+      </c>
       <c r="V102" s="1">
         <v>0.62525838661259303</v>
       </c>
@@ -2277,9 +2888,15 @@
       <c r="R103" s="1">
         <v>41658693.467336699</v>
       </c>
-      <c r="S103" s="2"/>
-      <c r="T103" s="2"/>
-      <c r="U103" s="2"/>
+      <c r="S103" s="2">
+        <v>5.3920592579520303E-5</v>
+      </c>
+      <c r="T103" s="2">
+        <v>-6.6350849551833504E-5</v>
+      </c>
+      <c r="U103" s="2">
+        <v>-1.8948500221885E-5</v>
+      </c>
       <c r="V103" s="1">
         <v>0.74477170664047898</v>
       </c>
@@ -2291,9 +2908,15 @@
       <c r="R104" s="1">
         <v>42071155.778894499</v>
       </c>
-      <c r="S104" s="2"/>
-      <c r="T104" s="2"/>
-      <c r="U104" s="2"/>
+      <c r="S104" s="2">
+        <v>4.8725200467517801E-5</v>
+      </c>
+      <c r="T104" s="2">
+        <v>-6.8214086994471896E-5</v>
+      </c>
+      <c r="U104" s="2">
+        <v>-1.8466776332987502E-5</v>
+      </c>
       <c r="V104" s="1">
         <v>0.86431867630508497</v>
       </c>
@@ -2305,9 +2928,15 @@
       <c r="R105" s="1">
         <v>42483618.090452299</v>
       </c>
-      <c r="S105" s="2"/>
-      <c r="T105" s="2"/>
-      <c r="U105" s="2"/>
+      <c r="S105" s="2">
+        <v>4.3665795220341402E-5</v>
+      </c>
+      <c r="T105" s="2">
+        <v>-6.9859061814864299E-5</v>
+      </c>
+      <c r="U105" s="2">
+        <v>-1.7959743116282199E-5</v>
+      </c>
       <c r="V105" s="1">
         <v>0.98358352917439995</v>
       </c>
@@ -2319,9 +2948,15 @@
       <c r="R106" s="1">
         <v>42896080.402010098</v>
       </c>
-      <c r="S106" s="2"/>
-      <c r="T106" s="2"/>
-      <c r="U106" s="2"/>
+      <c r="S106" s="2">
+        <v>3.8757968691181897E-5</v>
+      </c>
+      <c r="T106" s="2">
+        <v>-7.13075228129729E-5</v>
+      </c>
+      <c r="U106" s="2">
+        <v>-1.7423997521683899E-5</v>
+      </c>
       <c r="V106" s="1">
         <v>1.10232325081027</v>
       </c>
@@ -2333,9 +2968,15 @@
       <c r="R107" s="1">
         <v>43308542.713567801</v>
       </c>
-      <c r="S107" s="2"/>
-      <c r="T107" s="2"/>
-      <c r="U107" s="2"/>
+      <c r="S107" s="2">
+        <v>3.4006634962383101E-5</v>
+      </c>
+      <c r="T107" s="2">
+        <v>-7.2578314159883799E-5</v>
+      </c>
+      <c r="U107" s="2">
+        <v>-1.6855869545214099E-5</v>
+      </c>
       <c r="V107" s="1">
         <v>1.22045514985922</v>
       </c>
@@ -2347,9 +2988,15 @@
       <c r="R108" s="1">
         <v>43721005.0251256</v>
       </c>
-      <c r="S108" s="2"/>
-      <c r="T108" s="2"/>
-      <c r="U108" s="2"/>
+      <c r="S108" s="2">
+        <v>2.9407130175006101E-5</v>
+      </c>
+      <c r="T108" s="2">
+        <v>-7.3686422732280698E-5</v>
+      </c>
+      <c r="U108" s="2">
+        <v>-1.6251537726400598E-5</v>
+      </c>
       <c r="V108" s="1">
         <v>1.3383088059930801</v>
       </c>
@@ -2361,9 +3008,15 @@
       <c r="R109" s="1">
         <v>44133467.3366834</v>
       </c>
-      <c r="S109" s="2"/>
-      <c r="T109" s="2"/>
-      <c r="U109" s="2"/>
+      <c r="S109" s="2">
+        <v>2.4946690807850699E-5</v>
+      </c>
+      <c r="T109" s="2">
+        <v>-7.4642304203339203E-5</v>
+      </c>
+      <c r="U109" s="2">
+        <v>-1.5607151508606901E-5</v>
+      </c>
       <c r="V109" s="1">
         <v>1.4581648556193401</v>
       </c>
@@ -2375,9 +3028,15 @@
       <c r="R110" s="1">
         <v>44545929.6482412</v>
       </c>
-      <c r="S110" s="2"/>
-      <c r="T110" s="2"/>
-      <c r="U110" s="2"/>
+      <c r="S110" s="2">
+        <v>2.0606234396532802E-5</v>
+      </c>
+      <c r="T110" s="2">
+        <v>-7.5451506423979405E-5</v>
+      </c>
+      <c r="U110" s="2">
+        <v>-1.4918957708508599E-5</v>
+      </c>
       <c r="V110" s="1">
         <v>1.68581299667055</v>
       </c>
@@ -2389,9 +3048,15 @@
       <c r="R111" s="1">
         <v>44958391.959798999</v>
       </c>
-      <c r="S111" s="2"/>
-      <c r="T111" s="2"/>
-      <c r="U111" s="2"/>
+      <c r="S111" s="2">
+        <v>1.6362353597476799E-5</v>
+      </c>
+      <c r="T111" s="2">
+        <v>-7.6114593419545203E-5</v>
+      </c>
+      <c r="U111" s="2">
+        <v>-1.41834281482072E-5</v>
+      </c>
       <c r="V111" s="1">
         <v>1.47803718429079</v>
       </c>
@@ -2403,9 +3068,15 @@
       <c r="R112" s="1">
         <v>45370854.271356799</v>
       </c>
-      <c r="S112" s="2"/>
-      <c r="T112" s="2"/>
-      <c r="U112" s="2"/>
+      <c r="S112" s="2">
+        <v>1.21894255617737E-5</v>
+      </c>
+      <c r="T112" s="2">
+        <v>-7.6627358534615405E-5</v>
+      </c>
+      <c r="U112" s="2">
+        <v>-1.3397385390661099E-5</v>
+      </c>
       <c r="V112" s="1">
         <v>1.3601743739614101</v>
       </c>
@@ -2417,9 +3088,15 @@
       <c r="R113" s="1">
         <v>45783316.582914598</v>
       </c>
-      <c r="S113" s="2"/>
-      <c r="T113" s="2"/>
-      <c r="U113" s="2"/>
+      <c r="S113" s="2">
+        <v>8.0617343139802997E-6</v>
+      </c>
+      <c r="T113" s="2">
+        <v>-7.6981301630911898E-5</v>
+      </c>
+      <c r="U113" s="2">
+        <v>-1.25581234937165E-5</v>
+      </c>
       <c r="V113" s="1">
         <v>1.2468044883942699</v>
       </c>
@@ -2431,9 +3108,15 @@
       <c r="R114" s="1">
         <v>46195778.894472398</v>
       </c>
-      <c r="S114" s="2"/>
-      <c r="T114" s="2"/>
-      <c r="U114" s="2"/>
+      <c r="S114" s="2">
+        <v>3.9555045175339398E-6</v>
+      </c>
+      <c r="T114" s="2">
+        <v>-7.7164333448651403E-5</v>
+      </c>
+      <c r="U114" s="2">
+        <v>-1.16635207643157E-5</v>
+      </c>
       <c r="V114" s="1">
         <v>1.1346419273409301</v>
       </c>
@@ -2445,9 +3128,15 @@
       <c r="R115" s="1">
         <v>46608241.206030101</v>
       </c>
-      <c r="S115" s="2"/>
-      <c r="T115" s="2"/>
-      <c r="U115" s="2"/>
+      <c r="S115" s="2">
+        <v>-1.4924932807866301E-7</v>
+      </c>
+      <c r="T115" s="2">
+        <v>-7.7161660818648596E-5</v>
+      </c>
+      <c r="U115" s="2">
+        <v>-1.07121416530526E-5</v>
+      </c>
       <c r="V115" s="1">
         <v>1.02282800577767</v>
       </c>
@@ -2459,9 +3148,15 @@
       <c r="R116" s="1">
         <v>47020703.5175879</v>
       </c>
-      <c r="S116" s="2"/>
-      <c r="T116" s="2"/>
-      <c r="U116" s="2"/>
+      <c r="S116" s="2">
+        <v>-4.2671438263966E-6</v>
+      </c>
+      <c r="T116" s="2">
+        <v>-7.6956799753449798E-5</v>
+      </c>
+      <c r="U116" s="2">
+        <v>-9.7033251769273907E-6</v>
+      </c>
       <c r="V116" s="1">
         <v>0.91091198698655396</v>
       </c>
@@ -2473,9 +3168,15 @@
       <c r="R117" s="1">
         <v>47433165.8291457</v>
       </c>
-      <c r="S117" s="2"/>
-      <c r="T117" s="2"/>
-      <c r="U117" s="2"/>
+      <c r="S117" s="2">
+        <v>-8.4061887391346003E-6</v>
+      </c>
+      <c r="T117" s="2">
+        <v>-7.6532659770323896E-5</v>
+      </c>
+      <c r="U117" s="2">
+        <v>-8.6372575879568904E-6</v>
+      </c>
       <c r="V117" s="1">
         <v>0.79859324760904205</v>
       </c>
@@ -2487,9 +3188,15 @@
       <c r="R118" s="1">
         <v>47845628.140703499</v>
       </c>
-      <c r="S118" s="2"/>
-      <c r="T118" s="2"/>
-      <c r="U118" s="2"/>
+      <c r="S118" s="2">
+        <v>-1.2566943110212801E-5</v>
+      </c>
+      <c r="T118" s="2">
+        <v>-7.5872642156426403E-5</v>
+      </c>
+      <c r="U118" s="2">
+        <v>-7.5150274066773499E-6</v>
+      </c>
       <c r="V118" s="1">
         <v>0.68566921591346797</v>
       </c>
@@ -2501,9 +3208,15 @@
       <c r="R119" s="1">
         <v>48258090.452261299</v>
       </c>
-      <c r="S119" s="2"/>
-      <c r="T119" s="2"/>
-      <c r="U119" s="2"/>
+      <c r="S119" s="2">
+        <v>-1.6742097908421899E-5</v>
+      </c>
+      <c r="T119" s="2">
+        <v>-7.4961697154547405E-5</v>
+      </c>
+      <c r="U119" s="2">
+        <v>-6.3386613989763299E-6</v>
+      </c>
       <c r="V119" s="1">
         <v>0.57202401087892296</v>
       </c>
@@ -2515,9 +3228,15 @@
       <c r="R120" s="1">
         <v>48670552.763819098</v>
       </c>
-      <c r="S120" s="2"/>
-      <c r="T120" s="2"/>
-      <c r="U120" s="2"/>
+      <c r="S120" s="2">
+        <v>-2.0916495764188001E-5</v>
+      </c>
+      <c r="T120" s="2">
+        <v>-7.3787289953974598E-5</v>
+      </c>
+      <c r="U120" s="2">
+        <v>-5.1111405760323599E-6</v>
+      </c>
       <c r="V120" s="1">
         <v>0.45762516959841099</v>
       </c>
@@ -2529,9 +3248,15 @@
       <c r="R121" s="1">
         <v>49083015.075376898</v>
       </c>
-      <c r="S121" s="2"/>
-      <c r="T121" s="2"/>
-      <c r="U121" s="2"/>
+      <c r="S121" s="2">
+        <v>-2.5067576311873599E-5</v>
+      </c>
+      <c r="T121" s="2">
+        <v>-7.23402325128595E-5</v>
+      </c>
+      <c r="U121" s="2">
+        <v>-3.8363958227136597E-6</v>
+      </c>
       <c r="V121" s="1">
         <v>0.34251956326754102</v>
       </c>
@@ -2543,9 +3268,15 @@
       <c r="R122" s="1">
         <v>49495477.386934698</v>
       </c>
-      <c r="S122" s="2"/>
-      <c r="T122" s="2"/>
-      <c r="U122" s="2"/>
+      <c r="S122" s="2">
+        <v>-2.91662145803483E-5</v>
+      </c>
+      <c r="T122" s="2">
+        <v>-7.0615347117443906E-5</v>
+      </c>
+      <c r="U122" s="2">
+        <v>-2.51928329104958E-6</v>
+      </c>
       <c r="V122" s="1">
         <v>0.22682568196861799</v>
       </c>
@@ -2557,9 +3288,15 @@
       <c r="R123" s="1">
         <v>49907939.698492497</v>
       </c>
-      <c r="S123" s="2"/>
-      <c r="T123" s="2"/>
-      <c r="U123" s="2"/>
+      <c r="S123" s="2">
+        <v>-3.3177900918342299E-5</v>
+      </c>
+      <c r="T123" s="2">
+        <v>-6.8611937638385104E-5</v>
+      </c>
+      <c r="U123" s="2">
+        <v>-1.1655402138300899E-6</v>
+      </c>
       <c r="V123" s="1">
         <v>0.110721627853055</v>
       </c>
@@ -2571,9 +3308,15 @@
       <c r="R124" s="1">
         <v>50320402.010050297</v>
       </c>
-      <c r="S124" s="2"/>
-      <c r="T124" s="2"/>
-      <c r="U124" s="2"/>
+      <c r="S124" s="2">
+        <v>-3.7064195077025202E-5</v>
+      </c>
+      <c r="T124" s="2">
+        <v>-6.6334055088046896E-5</v>
+      </c>
+      <c r="U124" s="2">
+        <v>2.1827771849627401E-7</v>
+      </c>
       <c r="V124" s="1">
         <v>6.2776145659060596</v>
       </c>
@@ -2585,9 +3328,15 @@
       <c r="R125" s="1">
         <v>50732864.321608</v>
       </c>
-      <c r="S125" s="2"/>
-      <c r="T125" s="2"/>
-      <c r="U125" s="2"/>
+      <c r="S125" s="2">
+        <v>-4.0784375086966703E-5</v>
+      </c>
+      <c r="T125" s="2">
+        <v>-6.3790554737088795E-5</v>
+      </c>
+      <c r="U125" s="2">
+        <v>1.62487583251114E-6</v>
+      </c>
       <c r="V125" s="1">
         <v>6.1613809558971804</v>
       </c>
@@ -2599,9 +3348,15 @@
       <c r="R126" s="1">
         <v>51145326.633165799</v>
       </c>
-      <c r="S126" s="2"/>
-      <c r="T126" s="2"/>
-      <c r="U126" s="2"/>
+      <c r="S126" s="2">
+        <v>-4.4297194007844701E-5</v>
+      </c>
+      <c r="T126" s="2">
+        <v>-6.0994952175467601E-5</v>
+      </c>
+      <c r="U126" s="2">
+        <v>3.04631483059579E-6</v>
+      </c>
       <c r="V126" s="1">
         <v>6.0454588084268597</v>
       </c>
@@ -2613,9 +3368,15 @@
       <c r="R127" s="1">
         <v>51557788.944723599</v>
       </c>
-      <c r="S127" s="2"/>
-      <c r="T127" s="2"/>
-      <c r="U127" s="2"/>
+      <c r="S127" s="2">
+        <v>-4.7562654777971097E-5</v>
+      </c>
+      <c r="T127" s="2">
+        <v>-5.79650948321172E-5</v>
+      </c>
+      <c r="U127" s="2">
+        <v>4.4741177539328802E-6</v>
+      </c>
       <c r="V127" s="1">
         <v>5.9300876516241097</v>
       </c>
@@ -2627,9 +3388,15 @@
       <c r="R128" s="1">
         <v>51970251.256281398</v>
       </c>
-      <c r="S128" s="2"/>
-      <c r="T128" s="2"/>
-      <c r="U128" s="2"/>
+      <c r="S128" s="2">
+        <v>-5.0543715253901802E-5</v>
+      </c>
+      <c r="T128" s="2">
+        <v>-5.4722673214382497E-5</v>
+      </c>
+      <c r="U128" s="2">
+        <v>5.8993870348332898E-6</v>
+      </c>
       <c r="V128" s="1">
         <v>5.81547756132088</v>
       </c>
@@ -2641,9 +3408,15 @@
       <c r="R129" s="1">
         <v>52382713.567839198</v>
       </c>
-      <c r="S129" s="2"/>
-      <c r="T129" s="2"/>
-      <c r="U129" s="2"/>
+      <c r="S129" s="2">
+        <v>-5.32078418457715E-5</v>
+      </c>
+      <c r="T129" s="2">
+        <v>-5.1292602209737199E-5</v>
+      </c>
+      <c r="U129" s="2">
+        <v>7.3129289695242103E-6</v>
+      </c>
       <c r="V129" s="1">
         <v>5.7017968583986196</v>
       </c>
@@ -2655,9 +3428,15 @@
       <c r="R130" s="1">
         <v>52795175.879396997</v>
       </c>
-      <c r="S130" s="2"/>
-      <c r="T130" s="2"/>
-      <c r="U130" s="2"/>
+      <c r="S130" s="2">
+        <v>-5.5528340422549302E-5</v>
+      </c>
+      <c r="T130" s="2">
+        <v>-4.77023070299707E-5</v>
+      </c>
+      <c r="U130" s="2">
+        <v>8.7053828701859106E-6</v>
+      </c>
       <c r="V130" s="1">
         <v>5.5891648730736598</v>
       </c>
@@ -2669,9 +3448,15 @@
       <c r="R131" s="1">
         <v>53207638.190954797</v>
       </c>
-      <c r="S131" s="2"/>
-      <c r="T131" s="2"/>
-      <c r="U131" s="2"/>
+      <c r="S131" s="2">
+        <v>-5.7485406677554997E-5</v>
+      </c>
+      <c r="T131" s="2">
+        <v>-4.39809507012789E-5</v>
+      </c>
+      <c r="U131" s="2">
+        <v>1.00673521616091E-5</v>
+      </c>
       <c r="V131" s="1">
         <v>5.4776507232889404</v>
       </c>
@@ -2683,9 +3468,15 @@
       <c r="R132" s="1">
         <v>53620100.502512597</v>
       </c>
-      <c r="S132" s="2"/>
-      <c r="T132" s="2"/>
-      <c r="U132" s="2"/>
+      <c r="S132" s="2">
+        <v>-5.90668540593103E-5</v>
+      </c>
+      <c r="T132" s="2">
+        <v>-4.0158640439157603E-5</v>
+      </c>
+      <c r="U132" s="2">
+        <v>1.1389534767922101E-5</v>
+      </c>
       <c r="V132" s="1">
         <v>5.3672796014026103</v>
       </c>
@@ -2697,9 +3488,15 @@
       <c r="R133" s="1">
         <v>54032562.814070299</v>
       </c>
-      <c r="S133" s="2"/>
-      <c r="T133" s="2"/>
-      <c r="U133" s="2"/>
+      <c r="S133" s="2">
+        <v>-6.0268494740845601E-5</v>
+      </c>
+      <c r="T133" s="2">
+        <v>-3.6265648911914802E-5</v>
+      </c>
+      <c r="U133" s="2">
+        <v>1.26628502806576E-5</v>
+      </c>
       <c r="V133" s="1">
         <v>5.25805052897657</v>
       </c>
@@ -2711,9 +3508,15 @@
       <c r="R134" s="1">
         <v>54445025.125628203</v>
       </c>
-      <c r="S134" s="2"/>
-      <c r="T134" s="2"/>
-      <c r="U134" s="2"/>
+      <c r="S134" s="2">
+        <v>-6.1094166946667002E-5</v>
+      </c>
+      <c r="T134" s="2">
+        <v>-3.2331683481236098E-5</v>
+      </c>
+      <c r="U134" s="2">
+        <v>1.38785616014419E-5</v>
+      </c>
       <c r="V134" s="1">
         <v>5.1499782062546</v>
       </c>
@@ -2725,9 +3528,15 @@
       <c r="R135" s="1">
         <v>54857487.437185898</v>
       </c>
-      <c r="S135" s="2"/>
-      <c r="T135" s="2"/>
-      <c r="U135" s="2"/>
+      <c r="S135" s="2">
+        <v>-6.1555419335009495E-5</v>
+      </c>
+      <c r="T135" s="2">
+        <v>-2.8385232260776601E-5</v>
+      </c>
+      <c r="U135" s="2">
+        <v>1.5028389000074E-5</v>
+      </c>
       <c r="V135" s="1">
         <v>5.0432059189487397</v>
       </c>
@@ -2739,9 +3548,15 @@
       <c r="R136" s="1">
         <v>55269949.748743698</v>
       </c>
-      <c r="S136" s="2"/>
-      <c r="T136" s="2"/>
-      <c r="U136" s="2"/>
+      <c r="S136" s="2">
+        <v>-6.16708791721655E-5</v>
+      </c>
+      <c r="T136" s="2">
+        <v>-2.4453010542771701E-5</v>
+      </c>
+      <c r="U136" s="2">
+        <v>1.6104614810318599E-5</v>
+      </c>
       <c r="V136" s="1">
         <v>4.9384188038097703</v>
       </c>
@@ -2753,9 +3568,15 @@
       <c r="R137" s="1">
         <v>55682412.060301498</v>
       </c>
-      <c r="S137" s="2"/>
-      <c r="T137" s="2"/>
-      <c r="U137" s="2"/>
+      <c r="S137" s="2">
+        <v>-6.1465344996283801E-5</v>
+      </c>
+      <c r="T137" s="2">
+        <v>-2.0559525119169201E-5</v>
+      </c>
+      <c r="U137" s="2">
+        <v>1.7100177289939401E-5</v>
+      </c>
       <c r="V137" s="1">
         <v>4.8394774457600596</v>
       </c>
@@ -2767,9 +3588,15 @@
       <c r="R138" s="1">
         <v>56094874.371859297</v>
       </c>
-      <c r="S138" s="2"/>
-      <c r="T138" s="2"/>
-      <c r="U138" s="2"/>
+      <c r="S138" s="2">
+        <v>-6.0968655759615401E-5</v>
+      </c>
+      <c r="T138" s="2">
+        <v>-1.6726767585181999E-5</v>
+      </c>
+      <c r="U138" s="2">
+        <v>1.80087524872433E-5</v>
+      </c>
       <c r="V138" s="1">
         <v>4.8927938860328002</v>
       </c>
@@ -2781,9 +3608,15 @@
       <c r="R139" s="1">
         <v>56507336.683417097</v>
       </c>
-      <c r="S139" s="2"/>
-      <c r="T139" s="2"/>
-      <c r="U139" s="2"/>
+      <c r="S139" s="2">
+        <v>-6.0214396655507698E-5</v>
+      </c>
+      <c r="T139" s="2">
+        <v>-1.2974041168829499E-5</v>
+      </c>
+      <c r="U139" s="2">
+        <v>1.88248232734415E-5</v>
+      </c>
       <c r="V139" s="1">
         <v>4.8384932390825597</v>
       </c>
@@ -2795,9 +3628,15 @@
       <c r="R140" s="1">
         <v>56919798.994974896</v>
       </c>
-      <c r="S140" s="2"/>
-      <c r="T140" s="2"/>
-      <c r="U140" s="2"/>
+      <c r="S140" s="2">
+        <v>-5.9238506756443101E-5</v>
+      </c>
+      <c r="T140" s="2">
+        <v>-9.3179192680577907E-6</v>
+      </c>
+      <c r="U140" s="2">
+        <v>1.95437350092818E-5</v>
+      </c>
       <c r="V140" s="1">
         <v>4.9352199865023403</v>
       </c>
@@ -2809,9 +3648,15 @@
       <c r="R141" s="1">
         <v>57332261.306532703</v>
       </c>
-      <c r="S141" s="2"/>
-      <c r="T141" s="2"/>
-      <c r="U141" s="2"/>
+      <c r="S141" s="2">
+        <v>-5.8077855175942701E-5</v>
+      </c>
+      <c r="T141" s="2">
+        <v>-5.7723279552965399E-6</v>
+      </c>
+      <c r="U141" s="2">
+        <v>2.0161737607848798E-5</v>
+      </c>
       <c r="V141" s="1">
         <v>5.0395739767513996</v>
       </c>
@@ -2823,9 +3668,15 @@
       <c r="R142" s="1">
         <v>57744723.618090503</v>
       </c>
-      <c r="S142" s="2"/>
-      <c r="T142" s="2"/>
-      <c r="U142" s="2"/>
+      <c r="S142" s="2">
+        <v>-5.6768850851647997E-5</v>
+      </c>
+      <c r="T142" s="2">
+        <v>-2.3487394469183101E-6</v>
+      </c>
+      <c r="U142" s="2">
+        <v>2.06760140267941E-5</v>
+      </c>
       <c r="V142" s="1">
         <v>5.1459166011192901</v>
       </c>
@@ -2837,9 +3688,15 @@
       <c r="R143" s="1">
         <v>58157185.929648302</v>
       </c>
-      <c r="S143" s="2"/>
-      <c r="T143" s="2"/>
-      <c r="U143" s="2"/>
+      <c r="S143" s="2">
+        <v>-5.5346146510842E-5</v>
+      </c>
+      <c r="T143" s="2">
+        <v>9.43540891895572E-7</v>
+      </c>
+      <c r="U143" s="2">
+        <v>2.1084695467708501E-5</v>
+      </c>
       <c r="V143" s="1">
         <v>5.2531012893892699</v>
       </c>
@@ -2851,9 +3708,15 @@
       <c r="R144" s="1">
         <v>58569648.241205998</v>
       </c>
-      <c r="S144" s="2"/>
-      <c r="T144" s="2"/>
-      <c r="U144" s="2"/>
+      <c r="S144" s="2">
+        <v>-5.3841490324687999E-5</v>
+      </c>
+      <c r="T144" s="2">
+        <v>4.0970148972714004E-6</v>
+      </c>
+      <c r="U144" s="2">
+        <v>2.1386863774514298E-5</v>
+      </c>
       <c r="V144" s="1">
         <v>5.3606041686841497</v>
       </c>
@@ -2865,9 +3728,15 @@
       <c r="R145" s="1">
         <v>58982110.552763797</v>
       </c>
-      <c r="S145" s="2"/>
-      <c r="T145" s="2"/>
-      <c r="U145" s="2"/>
+      <c r="S145" s="2">
+        <v>-5.2282769670229499E-5</v>
+      </c>
+      <c r="T145" s="2">
+        <v>7.1055826144726402E-6</v>
+      </c>
+      <c r="U145" s="2">
+        <v>2.1582541704691999E-5</v>
+      </c>
       <c r="V145" s="1">
         <v>5.4680095529344301</v>
       </c>
@@ -2879,9 +3748,15 @@
       <c r="R146" s="1">
         <v>59394572.864321597</v>
       </c>
-      <c r="S146" s="2"/>
-      <c r="T146" s="2"/>
-      <c r="U146" s="2"/>
+      <c r="S146" s="2">
+        <v>-5.0693280847902799E-5</v>
+      </c>
+      <c r="T146" s="2">
+        <v>9.9641085902414604E-6</v>
+      </c>
+      <c r="U146" s="2">
+        <v>2.1672671896151701E-5</v>
+      </c>
       <c r="V146" s="1">
         <v>5.5748978713453798</v>
       </c>
@@ -2893,9 +3768,15 @@
       <c r="R147" s="1">
         <v>59807035.175879396</v>
       </c>
-      <c r="S147" s="2"/>
-      <c r="T147" s="2"/>
-      <c r="U147" s="2"/>
+      <c r="S147" s="2">
+        <v>-4.9091247111314397E-5</v>
+      </c>
+      <c r="T147" s="2">
+        <v>1.26679883178016E-5</v>
+      </c>
+      <c r="U147" s="2">
+        <v>2.1659085469054001E-5</v>
+      </c>
       <c r="V147" s="1">
         <v>5.6808286664189902</v>
       </c>
@@ -2907,9 +3788,15 @@
       <c r="R148" s="1">
         <v>60219497.487437204</v>
       </c>
-      <c r="S148" s="2"/>
-      <c r="T148" s="2"/>
-      <c r="U148" s="2"/>
+      <c r="S148" s="2">
+        <v>-4.7489595517158202E-5</v>
+      </c>
+      <c r="T148" s="2">
+        <v>1.52127389048426E-5</v>
+      </c>
+      <c r="U148" s="2">
+        <v>2.1544461287178E-5</v>
+      </c>
       <c r="V148" s="1">
         <v>5.7853566311258797</v>
       </c>
@@ -2921,9 +3808,15 @@
       <c r="R149" s="1">
         <v>60631959.798995003</v>
       </c>
-      <c r="S149" s="2"/>
-      <c r="T149" s="2"/>
-      <c r="U149" s="2"/>
+      <c r="S149" s="2">
+        <v>-4.58959914269304E-5</v>
+      </c>
+      <c r="T149" s="2">
+        <v>1.75936362741159E-5</v>
+      </c>
+      <c r="U149" s="2">
+        <v>2.1332276959603599E-5</v>
+      </c>
       <c r="V149" s="1">
         <v>5.8880603291907896</v>
       </c>
@@ -2935,9 +3828,15 @@
       <c r="R150" s="1">
         <v>61044422.110552803</v>
       </c>
-      <c r="S150" s="2"/>
-      <c r="T150" s="2"/>
-      <c r="U150" s="2"/>
+      <c r="S150" s="2">
+        <v>-4.4313118460544997E-5</v>
+      </c>
+      <c r="T150" s="2">
+        <v>1.9805418592033602E-5</v>
+      </c>
+      <c r="U150" s="2">
+        <v>2.1026752693097501E-5</v>
+      </c>
       <c r="V150" s="1">
         <v>5.9885729564414403</v>
       </c>
@@ -2949,9 +3848,15 @@
       <c r="R151" s="1">
         <v>61456884.422110602</v>
       </c>
-      <c r="S151" s="2"/>
-      <c r="T151" s="2"/>
-      <c r="U151" s="2"/>
+      <c r="S151" s="2">
+        <v>-4.2739181726968799E-5</v>
+      </c>
+      <c r="T151" s="2">
+        <v>2.1842072280812902E-5</v>
+      </c>
+      <c r="U151" s="2">
+        <v>2.0632789111630099E-5</v>
+      </c>
       <c r="V151" s="1">
         <v>6.0866081375543803</v>
       </c>
@@ -2963,9 +3868,15 @@
       <c r="R152" s="1">
         <v>61869346.733668402</v>
       </c>
-      <c r="S152" s="2"/>
-      <c r="T152" s="2"/>
-      <c r="U152" s="2"/>
+      <c r="S152" s="2">
+        <v>-4.1168603564818997E-5</v>
+      </c>
+      <c r="T152" s="2">
+        <v>2.3696713053982201E-5</v>
+      </c>
+      <c r="U152" s="2">
+        <v>2.0155900145053499E-5</v>
+      </c>
       <c r="V152" s="1">
         <v>6.1819765270961202</v>
       </c>
@@ -2977,9 +3888,15 @@
       <c r="R153" s="1">
         <v>62281809.045226097</v>
       </c>
-      <c r="S153" s="2"/>
-      <c r="T153" s="2"/>
-      <c r="U153" s="2"/>
+      <c r="S153" s="2">
+        <v>-3.9592874064841301E-5</v>
+      </c>
+      <c r="T153" s="2">
+        <v>2.53615700830712E-5</v>
+      </c>
+      <c r="U153" s="2">
+        <v>1.9602142057359301E-5</v>
+      </c>
       <c r="V153" s="1">
         <v>6.2745917012075001</v>
       </c>
@@ -2991,9 +3908,15 @@
       <c r="R154" s="1">
         <v>62694271.356783897</v>
       </c>
-      <c r="S154" s="2"/>
-      <c r="T154" s="2"/>
-      <c r="U154" s="2"/>
+      <c r="S154" s="2">
+        <v>-3.8001513479339801E-5</v>
+      </c>
+      <c r="T154" s="2">
+        <v>2.6828076821430901E-5</v>
+      </c>
+      <c r="U154" s="2">
+        <v>1.89780396392758E-5</v>
+      </c>
       <c r="V154" s="1">
         <v>8.1280860287657394E-2</v>
       </c>
@@ -3005,9 +3928,15 @@
       <c r="R155" s="1">
         <v>63106733.668341704</v>
       </c>
-      <c r="S155" s="2"/>
-      <c r="T155" s="2"/>
-      <c r="U155" s="2"/>
+      <c r="S155" s="2">
+        <v>-3.63831003345775E-5</v>
+      </c>
+      <c r="T155" s="2">
+        <v>2.8087067346748401E-5</v>
+      </c>
+      <c r="U155" s="2">
+        <v>1.8290510533272998E-5</v>
+      </c>
       <c r="V155" s="1">
         <v>0.16851456671968801</v>
       </c>
@@ -3019,9 +3948,15 @@
       <c r="R156" s="1">
         <v>63519195.979899503</v>
       </c>
-      <c r="S156" s="2"/>
-      <c r="T156" s="2"/>
-      <c r="U156" s="2"/>
+      <c r="S156" s="2">
+        <v>-3.4726317661181497E-5</v>
+      </c>
+      <c r="T156" s="2">
+        <v>2.912907250138E-5</v>
+      </c>
+      <c r="U156" s="2">
+        <v>1.7546788594134401E-5</v>
+      </c>
       <c r="V156" s="1">
         <v>0.25327891658327201</v>
       </c>
@@ -3033,9 +3968,15 @@
       <c r="R157" s="1">
         <v>63931658.291457303</v>
       </c>
-      <c r="S157" s="2"/>
-      <c r="T157" s="2"/>
-      <c r="U157" s="2"/>
+      <c r="S157" s="2">
+        <v>-3.3020970190911203E-5</v>
+      </c>
+      <c r="T157" s="2">
+        <v>2.99447057623333E-5</v>
+      </c>
+      <c r="U157" s="2">
+        <v>1.6754347117671001E-5</v>
+      </c>
       <c r="V157" s="1">
         <v>0.33579914651238202</v>
       </c>
@@ -3047,9 +3988,15 @@
       <c r="R158" s="1">
         <v>64344120.603015102</v>
       </c>
-      <c r="S158" s="2"/>
-      <c r="T158" s="2"/>
-      <c r="U158" s="2"/>
+      <c r="S158" s="2">
+        <v>-3.1258927524645899E-5</v>
+      </c>
+      <c r="T158" s="2">
+        <v>3.0525124804879E-5</v>
+      </c>
+      <c r="U158" s="2">
+        <v>1.59208226961396E-5</v>
+      </c>
       <c r="V158" s="1">
         <v>0.41633730912379002</v>
       </c>
@@ -3061,9 +4008,15 @@
       <c r="R159" s="1">
         <v>64756582.914572902</v>
       </c>
-      <c r="S159" s="2"/>
-      <c r="T159" s="2"/>
-      <c r="U159" s="2"/>
+      <c r="S159" s="2">
+        <v>-2.9434952002534699E-5</v>
+      </c>
+      <c r="T159" s="2">
+        <v>3.0862551260054698E-5</v>
+      </c>
+      <c r="U159" s="2">
+        <v>1.50539403834506E-5</v>
+      </c>
       <c r="V159" s="1">
         <v>0.49517732611773002</v>
       </c>
@@ -3075,9 +4028,15 @@
       <c r="R160" s="1">
         <v>65169045.226130702</v>
       </c>
-      <c r="S160" s="2"/>
-      <c r="T160" s="2"/>
-      <c r="U160" s="2"/>
+      <c r="S160" s="2">
+        <v>-2.7547375111368402E-5</v>
+      </c>
+      <c r="T160" s="2">
+        <v>3.0950828314023301E-5</v>
+      </c>
+      <c r="U160" s="2">
+        <v>1.41614407779295E-5</v>
+      </c>
       <c r="V160" s="1">
         <v>0.57261286463258498</v>
       </c>
@@ -3089,9 +4048,15 @@
       <c r="R161" s="1">
         <v>65581507.537688501</v>
       </c>
-      <c r="S161" s="2"/>
-      <c r="T161" s="2"/>
-      <c r="U161" s="2"/>
+      <c r="S161" s="2">
+        <v>-2.5598592530613501E-5</v>
+      </c>
+      <c r="T161" s="2">
+        <v>3.0785993642826003E-5</v>
+      </c>
+      <c r="U161" s="2">
+        <v>1.3251009556595099E-5</v>
+      </c>
       <c r="V161" s="1">
         <v>0.64893825162221797</v>
       </c>
@@ -3103,9 +4068,15 @@
       <c r="R162" s="1">
         <v>65993969.849246196</v>
       </c>
-      <c r="S162" s="2"/>
-      <c r="T162" s="2"/>
-      <c r="U162" s="2"/>
+      <c r="S162" s="2">
+        <v>-2.3595355113242001E-5</v>
+      </c>
+      <c r="T162" s="2">
+        <v>3.03668437810876E-5</v>
+      </c>
+      <c r="U162" s="2">
+        <v>1.2330209923696301E-5</v>
+      </c>
       <c r="V162" s="1">
         <v>0.72444230982968405</v>
       </c>
@@ -3117,9 +4088,15 @@
       <c r="R163" s="1">
         <v>66406432.160804003</v>
       </c>
-      <c r="S163" s="2"/>
-      <c r="T163" s="2"/>
-      <c r="U163" s="2"/>
+      <c r="S163" s="2">
+        <v>-2.1548840976449901E-5</v>
+      </c>
+      <c r="T163" s="2">
+        <v>2.96954654261482E-5</v>
+      </c>
+      <c r="U163" s="2">
+        <v>1.14064183684155E-5</v>
+      </c>
       <c r="V163" s="1">
         <v>0.79940486414103995</v>
       </c>
@@ -3131,9 +4108,15 @@
       <c r="R164" s="1">
         <v>66818894.472361803</v>
       </c>
-      <c r="S164" s="2"/>
-      <c r="T164" s="2"/>
-      <c r="U164" s="2"/>
+      <c r="S164" s="2">
+        <v>-1.9474502192470999E-5</v>
+      </c>
+      <c r="T164" s="2">
+        <v>2.8777709395887701E-5</v>
+      </c>
+      <c r="U164" s="2">
+        <v>1.04867640627944E-5</v>
+      </c>
       <c r="V164" s="1">
         <v>0.87409571640283301</v>
       </c>
@@ -3145,9 +4128,15 @@
       <c r="R165" s="1">
         <v>67231356.783919603</v>
       </c>
-      <c r="S165" s="2"/>
-      <c r="T165" s="2"/>
-      <c r="U165" s="2"/>
+      <c r="S165" s="2">
+        <v>-1.7391688075440798E-5</v>
+      </c>
+      <c r="T165" s="2">
+        <v>2.7623583977288699E-5</v>
+      </c>
+      <c r="U165" s="2">
+        <v>9.5780721714431403E-6</v>
+      </c>
       <c r="V165" s="1">
         <v>0.94877614986248404</v>
       </c>
@@ -3159,9 +4148,15 @@
       <c r="R166" s="1">
         <v>67643819.095477402</v>
       </c>
-      <c r="S166" s="2"/>
-      <c r="T166" s="2"/>
-      <c r="U166" s="2"/>
+      <c r="S166" s="2">
+        <v>-1.5323055515438399E-5</v>
+      </c>
+      <c r="T166" s="2">
+        <v>2.6247546192727499E-5</v>
+      </c>
+      <c r="U166" s="2">
+        <v>8.6868112896684693E-6</v>
+      </c>
       <c r="V166" s="1">
         <v>1.023703653189</v>
       </c>
@@ -3173,9 +4168,15 @@
       <c r="R167" s="1">
         <v>68056281.407035202</v>
       </c>
-      <c r="S167" s="2"/>
-      <c r="T167" s="2"/>
-      <c r="U167" s="2"/>
+      <c r="S167" s="2">
+        <v>-1.32937849859175E-5</v>
+      </c>
+      <c r="T167" s="2">
+        <v>2.4668672018259001E-5</v>
+      </c>
+      <c r="U167" s="2">
+        <v>7.8190451763763905E-6</v>
+      </c>
       <c r="V167" s="1">
         <v>1.0991420489772501</v>
       </c>
@@ -3187,9 +4188,15 @@
       <c r="R168" s="1">
         <v>68468743.718593001</v>
       </c>
-      <c r="S168" s="2"/>
-      <c r="T168" s="2"/>
-      <c r="U168" s="2"/>
+      <c r="S168" s="2">
+        <v>-1.1330628527885999E-5</v>
+      </c>
+      <c r="T168" s="2">
+        <v>2.2910689739689201E-5</v>
+      </c>
+      <c r="U168" s="2">
+        <v>6.9803889024106999E-6</v>
+      </c>
       <c r="V168" s="1">
         <v>1.1753832209909101</v>
       </c>
@@ -3201,9 +4208,15 @@
       <c r="R169" s="1">
         <v>68881206.030150801</v>
       </c>
-      <c r="S169" s="2"/>
-      <c r="T169" s="2"/>
-      <c r="U169" s="2"/>
+      <c r="S169" s="2">
+        <v>-9.4608229927183903E-6</v>
+      </c>
+      <c r="T169" s="2">
+        <v>2.10018643403177E-5</v>
+      </c>
+      <c r="U169" s="2">
+        <v>6.17596949375024E-6</v>
+      </c>
       <c r="V169" s="1">
         <v>1.25279931924687</v>
       </c>
@@ -3215,9 +4228,15 @@
       <c r="R170" s="1">
         <v>69293668.341708601</v>
       </c>
-      <c r="S170" s="2"/>
-      <c r="T170" s="2"/>
-      <c r="U170" s="2"/>
+      <c r="S170" s="2">
+        <v>-7.7109079236440705E-6</v>
+      </c>
+      <c r="T170" s="2">
+        <v>1.89747249752059E-5</v>
+      </c>
+      <c r="U170" s="2">
+        <v>5.4103911119863203E-6</v>
+      </c>
       <c r="V170" s="1">
         <v>1.3319940649575199</v>
       </c>
@@ -3229,9 +4248,15 @@
       <c r="R171" s="1">
         <v>69706130.653266296</v>
       </c>
-      <c r="S171" s="2"/>
-      <c r="T171" s="2"/>
-      <c r="U171" s="2"/>
+      <c r="S171" s="2">
+        <v>-6.1054925136134904E-6</v>
+      </c>
+      <c r="T171" s="2">
+        <v>1.6865632090382099E-5</v>
+      </c>
+      <c r="U171" s="2">
+        <v>4.6877047814775702E-6</v>
+      </c>
       <c r="V171" s="1">
         <v>1.41438903750373</v>
       </c>
@@ -3243,9 +4268,15 @@
       <c r="R172" s="1">
         <v>70118592.964824095</v>
       </c>
-      <c r="S172" s="2"/>
-      <c r="T172" s="2"/>
-      <c r="U172" s="2"/>
+      <c r="S172" s="2">
+        <v>-4.6660199595041599E-6</v>
+      </c>
+      <c r="T172" s="2">
+        <v>1.4714185470789301E-5</v>
+      </c>
+      <c r="U172" s="2">
+        <v>4.0113826432384797E-6</v>
+      </c>
       <c r="V172" s="1">
         <v>1.5061229588807401</v>
       </c>
@@ -3257,9 +4288,15 @@
       <c r="R173" s="1">
         <v>70531055.276381895</v>
       </c>
-      <c r="S173" s="2"/>
-      <c r="T173" s="2"/>
-      <c r="U173" s="2"/>
+      <c r="S173" s="2">
+        <v>-3.40958013178804E-6</v>
+      </c>
+      <c r="T173" s="2">
+        <v>1.2562479327408E-5</v>
+      </c>
+      <c r="U173" s="2">
+        <v>3.3842966896430298E-6</v>
+      </c>
       <c r="V173" s="1">
         <v>1.7831365176794101</v>
       </c>
@@ -3271,9 +4308,15 @@
       <c r="R174" s="1">
         <v>70943517.587939695</v>
       </c>
-      <c r="S174" s="2"/>
-      <c r="T174" s="2"/>
-      <c r="U174" s="2"/>
+      <c r="S174" s="2">
+        <v>-2.3478227166925401E-6</v>
+      </c>
+      <c r="T174" s="2">
+        <v>1.0454215337420099E-5</v>
+      </c>
+      <c r="U174" s="2">
+        <v>2.8087019110931598E-6</v>
+      </c>
       <c r="V174" s="1">
         <v>1.5238101095659</v>
       </c>
@@ -3285,9 +4328,15 @@
       <c r="R175" s="1">
         <v>71355979.899497494</v>
       </c>
-      <c r="S175" s="2"/>
-      <c r="T175" s="2"/>
-      <c r="U175" s="2"/>
+      <c r="S175" s="2">
+        <v>-1.4860228189647E-6</v>
+      </c>
+      <c r="T175" s="2">
+        <v>8.4336892130604095E-6</v>
+      </c>
+      <c r="U175" s="2">
+        <v>2.2862237655991398E-6</v>
+      </c>
       <c r="V175" s="1">
         <v>1.4252923681077301</v>
       </c>
@@ -3299,9 +4348,15 @@
       <c r="R176" s="1">
         <v>71768442.211055294</v>
       </c>
-      <c r="S176" s="2"/>
-      <c r="T176" s="2"/>
-      <c r="U176" s="2"/>
+      <c r="S176" s="2">
+        <v>-8.2234942465625495E-7</v>
+      </c>
+      <c r="T176" s="2">
+        <v>6.5446707783576604E-6</v>
+      </c>
+      <c r="U176" s="2">
+        <v>1.81784986443529E-6</v>
+      </c>
       <c r="V176" s="1">
         <v>1.33343175993485</v>
       </c>
@@ -3313,9 +4368,15 @@
       <c r="R177" s="1">
         <v>72180904.522613093</v>
       </c>
-      <c r="S177" s="2"/>
-      <c r="T177" s="2"/>
-      <c r="U177" s="2"/>
+      <c r="S177" s="2">
+        <v>-3.47384136711419E-7</v>
+      </c>
+      <c r="T177" s="2">
+        <v>4.82920157102101E-6</v>
+      </c>
+      <c r="U177" s="2">
+        <v>1.40392575137916E-6</v>
+      </c>
       <c r="V177" s="1">
         <v>1.2404885540808299</v>
       </c>
@@ -3327,9 +4388,15 @@
       <c r="R178" s="1">
         <v>72593366.834170893</v>
       </c>
-      <c r="S178" s="2"/>
-      <c r="T178" s="2"/>
-      <c r="U178" s="2"/>
+      <c r="S178" s="2">
+        <v>-4.3933266696487299E-8</v>
+      </c>
+      <c r="T178" s="2">
+        <v>3.3263375580833598E-6</v>
+      </c>
+      <c r="U178" s="2">
+        <v>1.0441546392579101E-6</v>
+      </c>
       <c r="V178" s="1">
         <v>1.1435997519285701</v>
       </c>
@@ -3341,9 +4408,15 @@
       <c r="R179" s="1">
         <v>73005829.145728707</v>
       </c>
-      <c r="S179" s="2"/>
-      <c r="T179" s="2"/>
-      <c r="U179" s="2"/>
+      <c r="S179" s="2">
+        <v>1.12829218050703E-7</v>
+      </c>
+      <c r="T179" s="2">
+        <v>2.0708675694471198E-6</v>
+      </c>
+      <c r="U179" s="2">
+        <v>7.3760095535827801E-7</v>
+      </c>
       <c r="V179" s="1">
         <v>1.03902926273251</v>
       </c>
@@ -3355,9 +4428,15 @@
       <c r="R180" s="1">
         <v>73418291.457286403</v>
       </c>
-      <c r="S180" s="2"/>
-      <c r="T180" s="2"/>
-      <c r="U180" s="2"/>
+      <c r="S180" s="2">
+        <v>1.54857113846752E-7</v>
+      </c>
+      <c r="T180" s="2">
+        <v>1.09204042990221E-6</v>
+      </c>
+      <c r="U180" s="2">
+        <v>4.8269753651521701E-7</v>
+      </c>
       <c r="V180" s="1">
         <v>0.91772000341350501</v>
       </c>
@@ -3369,9 +4448,15 @@
       <c r="R181" s="1">
         <v>73830753.768844202</v>
       </c>
-      <c r="S181" s="2"/>
-      <c r="T181" s="2"/>
-      <c r="U181" s="2"/>
+      <c r="S181" s="2">
+        <v>1.2034270325369401E-7</v>
+      </c>
+      <c r="T181" s="2">
+        <v>4.1233543761568E-7</v>
+      </c>
+      <c r="U181" s="2">
+        <v>2.77256305180329E-7</v>
+      </c>
       <c r="V181" s="1">
         <v>0.74511591173783898</v>
       </c>
@@ -3383,9 +4468,15 @@
       <c r="R182" s="1">
         <v>74243216.080402002</v>
       </c>
-      <c r="S182" s="2"/>
-      <c r="T182" s="2"/>
-      <c r="U182" s="2"/>
+      <c r="S182" s="2">
+        <v>5.2428260822231103E-8</v>
+      </c>
+      <c r="T182" s="2">
+        <v>4.6311731844657299E-8</v>
+      </c>
+      <c r="U182" s="2">
+        <v>1.18482249350606E-7</v>
+      </c>
       <c r="V182" s="1">
         <v>0.177450574890504</v>
       </c>
@@ -3397,9 +4488,15 @@
       <c r="R183" s="1">
         <v>74655678.391959801</v>
       </c>
-      <c r="S183" s="2"/>
-      <c r="T183" s="2"/>
-      <c r="U183" s="2"/>
+      <c r="S183" s="2">
+        <v>-2.4869852103573398E-9</v>
+      </c>
+      <c r="T183" s="2">
+        <v>-4.2783863178414399E-10</v>
+      </c>
+      <c r="U183" s="2">
+        <v>2.9905217851522398E-9</v>
+      </c>
       <c r="V183" s="1">
         <v>2.6490232353374199</v>
       </c>
@@ -3411,9 +4508,15 @@
       <c r="R184" s="1">
         <v>75068140.703517601</v>
       </c>
-      <c r="S184" s="2"/>
-      <c r="T184" s="2"/>
-      <c r="U184" s="2"/>
+      <c r="S184" s="2">
+        <v>3.1598921905032699E-9</v>
+      </c>
+      <c r="T184" s="2">
+        <v>2.6787646273424698E-7</v>
+      </c>
+      <c r="U184" s="2">
+        <v>-7.3173532628839299E-8</v>
+      </c>
       <c r="V184" s="1">
         <v>0.86843418691249596</v>
       </c>
@@ -3425,9 +4528,15 @@
       <c r="R185" s="1">
         <v>75480603.0150754</v>
       </c>
-      <c r="S185" s="2"/>
-      <c r="T185" s="2"/>
-      <c r="U185" s="2"/>
+      <c r="S185" s="2">
+        <v>1.1561630389426001E-7</v>
+      </c>
+      <c r="T185" s="2">
+        <v>8.36436845346675E-7</v>
+      </c>
+      <c r="U185" s="2">
+        <v>-1.14511618244755E-7</v>
+      </c>
       <c r="V185" s="1">
         <v>0.71092795170134404</v>
       </c>
@@ -3439,9 +4548,15 @@
       <c r="R186" s="1">
         <v>75893065.3266332</v>
       </c>
-      <c r="S186" s="2"/>
-      <c r="T186" s="2"/>
-      <c r="U186" s="2"/>
+      <c r="S186" s="2">
+        <v>3.7697324683199598E-7</v>
+      </c>
+      <c r="T186" s="2">
+        <v>1.67942643127434E-6</v>
+      </c>
+      <c r="U186" s="2">
+        <v>-1.2604720058844999E-7</v>
+      </c>
       <c r="V186" s="1">
         <v>0.59293888602460398</v>
       </c>
@@ -3453,9 +4568,15 @@
       <c r="R187" s="1">
         <v>76305527.638191</v>
       </c>
-      <c r="S187" s="2"/>
-      <c r="T187" s="2"/>
-      <c r="U187" s="2"/>
+      <c r="S187" s="2">
+        <v>8.2199694607817104E-7</v>
+      </c>
+      <c r="T187" s="2">
+        <v>2.7597273902037098E-6</v>
+      </c>
+      <c r="U187" s="2">
+        <v>-1.13297894843061E-7</v>
+      </c>
       <c r="V187" s="1">
         <v>0.48875730471353501</v>
       </c>
@@ -3467,9 +4588,15 @@
       <c r="R188" s="1">
         <v>76717989.949748799</v>
       </c>
-      <c r="S188" s="2"/>
-      <c r="T188" s="2"/>
-      <c r="U188" s="2"/>
+      <c r="S188" s="2">
+        <v>1.47467697880987E-6</v>
+      </c>
+      <c r="T188" s="2">
+        <v>4.0289410368590996E-6</v>
+      </c>
+      <c r="U188" s="2">
+        <v>-8.2245740228514802E-8</v>
+      </c>
       <c r="V188" s="1">
         <v>0.39144596387724201</v>
       </c>
@@ -3481,9 +4608,15 @@
       <c r="R189" s="1">
         <v>77130452.261306494</v>
       </c>
-      <c r="S189" s="2"/>
-      <c r="T189" s="2"/>
-      <c r="U189" s="2"/>
+      <c r="S189" s="2">
+        <v>2.34454418931209E-6</v>
+      </c>
+      <c r="T189" s="2">
+        <v>5.4276766239890001E-6</v>
+      </c>
+      <c r="U189" s="2">
+        <v>-3.9305572129804097E-8</v>
+      </c>
       <c r="V189" s="1">
         <v>0.29844209764919599</v>
       </c>
@@ -3495,9 +4628,15 @@
       <c r="R190" s="1">
         <v>77542914.572864294</v>
       </c>
-      <c r="S190" s="2"/>
-      <c r="T190" s="2"/>
-      <c r="U190" s="2"/>
+      <c r="S190" s="2">
+        <v>3.4228206171404802E-6</v>
+      </c>
+      <c r="T190" s="2">
+        <v>6.8861290926785997E-6</v>
+      </c>
+      <c r="U190" s="2">
+        <v>8.7082945562576608E-9</v>
+      </c>
       <c r="V190" s="1">
         <v>0.208669054409128</v>
       </c>
@@ -3509,9 +4648,15 @@
       <c r="R191" s="1">
         <v>77955376.884422094</v>
       </c>
-      <c r="S191" s="2"/>
-      <c r="T191" s="2"/>
-      <c r="U191" s="2"/>
+      <c r="S191" s="2">
+        <v>4.6784720418183701E-6</v>
+      </c>
+      <c r="T191" s="2">
+        <v>8.3249486789913397E-6</v>
+      </c>
+      <c r="U191" s="2">
+        <v>5.4616856723059199E-8</v>
+      </c>
       <c r="V191" s="1">
         <v>0.12167863221811</v>
       </c>
@@ -3523,9 +4668,15 @@
       <c r="R192" s="1">
         <v>78367839.195979893</v>
       </c>
-      <c r="S192" s="2"/>
-      <c r="T192" s="2"/>
-      <c r="U192" s="2"/>
+      <c r="S192" s="2">
+        <v>6.0542415401965099E-6</v>
+      </c>
+      <c r="T192" s="2">
+        <v>9.6563970970163108E-6</v>
+      </c>
+      <c r="U192" s="2">
+        <v>9.0912475254664098E-8</v>
+      </c>
       <c r="V192" s="1">
         <v>3.7341944628909898E-2</v>
       </c>
@@ -3537,9 +4688,15 @@
       <c r="R193" s="1">
         <v>78780301.507537693</v>
       </c>
-      <c r="S193" s="2"/>
-      <c r="T193" s="2"/>
-      <c r="U193" s="2"/>
+      <c r="S193" s="2">
+        <v>7.4627496159705801E-6</v>
+      </c>
+      <c r="T193" s="2">
+        <v>1.07857761343951E-5</v>
+      </c>
+      <c r="U193" s="2">
+        <v>1.09795975857932E-7</v>
+      </c>
       <c r="V193" s="1">
         <v>6.2389218745595096</v>
       </c>
@@ -3551,9 +4708,15 @@
       <c r="R194" s="1">
         <v>79192763.819095507</v>
       </c>
-      <c r="S194" s="2"/>
-      <c r="T194" s="2"/>
-      <c r="U194" s="2"/>
+      <c r="S194" s="2">
+        <v>8.7827529580866208E-6</v>
+      </c>
+      <c r="T194" s="2">
+        <v>1.1613105060830401E-5</v>
+      </c>
+      <c r="U194" s="2">
+        <v>1.03214588950051E-7</v>
+      </c>
       <c r="V194" s="1">
         <v>6.1603177180811999</v>
       </c>
@@ -3565,9 +4728,15 @@
       <c r="R195" s="1">
         <v>79605226.130653307</v>
       </c>
-      <c r="S195" s="2"/>
-      <c r="T195" s="2"/>
-      <c r="U195" s="2"/>
+      <c r="S195" s="2">
+        <v>9.8556596737590297E-6</v>
+      </c>
+      <c r="T195" s="2">
+        <v>1.2035013467740301E-5</v>
+      </c>
+      <c r="U195" s="2">
+        <v>6.2900522986830297E-8</v>
+      </c>
       <c r="V195" s="1">
         <v>6.0852522176053698</v>
       </c>
@@ -3579,9 +4748,15 @@
       <c r="R196" s="1">
         <v>80017688.442211106</v>
       </c>
-      <c r="S196" s="2"/>
-      <c r="T196" s="2"/>
-      <c r="U196" s="2"/>
+      <c r="S196" s="2">
+        <v>1.04824038606082E-5</v>
+      </c>
+      <c r="T196" s="2">
+        <v>1.1946806289273E-5</v>
+      </c>
+      <c r="U196" s="2">
+        <v>-1.95900290716619E-8</v>
+      </c>
       <c r="V196" s="1">
         <v>6.01476117829157</v>
       </c>
@@ -3593,9 +4768,15 @@
       <c r="R197" s="1">
         <v>80430150.753768906</v>
       </c>
-      <c r="S197" s="2"/>
-      <c r="T197" s="2"/>
-      <c r="U197" s="2"/>
+      <c r="S197" s="2">
+        <v>1.0420786529736799E-5</v>
+      </c>
+      <c r="T197" s="2">
+        <v>1.12446481251892E-5</v>
+      </c>
+      <c r="U197" s="2">
+        <v>-1.5283764373425399E-7</v>
+      </c>
       <c r="V197" s="1">
         <v>5.9510179800418399</v>
       </c>
@@ -3607,9 +4788,15 @@
       <c r="R198" s="1">
         <v>80842613.065326706</v>
       </c>
-      <c r="S198" s="2"/>
-      <c r="T198" s="2"/>
-      <c r="U198" s="2"/>
+      <c r="S198" s="2">
+        <v>9.3833930177836802E-6</v>
+      </c>
+      <c r="T198" s="2">
+        <v>9.8278049835564796E-6</v>
+      </c>
+      <c r="U198" s="2">
+        <v>-3.4552036678192501E-7</v>
+      </c>
       <c r="V198" s="1">
         <v>5.8993945265240297</v>
       </c>
@@ -3621,9 +4808,15 @@
       <c r="R199" s="1">
         <v>81255075.376884401</v>
       </c>
-      <c r="S199" s="2"/>
-      <c r="T199" s="2"/>
-      <c r="U199" s="2"/>
+      <c r="S199" s="2">
+        <v>7.0361989068861004E-6</v>
+      </c>
+      <c r="T199" s="2">
+        <v>7.6008736387990797E-6</v>
+      </c>
+      <c r="U199" s="2">
+        <v>-6.06374534613208E-7</v>
+      </c>
       <c r="V199" s="1">
         <v>5.8775762055658003</v>
       </c>
@@ -3635,9 +4828,15 @@
       <c r="R200" s="1">
         <v>81667537.6884422</v>
       </c>
-      <c r="S200" s="2"/>
-      <c r="T200" s="2"/>
-      <c r="U200" s="2"/>
+      <c r="S200" s="2">
+        <v>2.9979768047480301E-6</v>
+      </c>
+      <c r="T200" s="2">
+        <v>4.4759224711876098E-6</v>
+      </c>
+      <c r="U200" s="2">
+        <v>-9.4415588166460602E-7</v>
+      </c>
       <c r="V200" s="1">
         <v>5.9944392819444898</v>
       </c>
@@ -3649,9 +4848,15 @@
       <c r="R201" s="1">
         <v>82080000</v>
       </c>
-      <c r="S201" s="2"/>
-      <c r="T201" s="2"/>
-      <c r="U201" s="2"/>
+      <c r="S201" s="2">
+        <v>-3.15938527751037E-6</v>
+      </c>
+      <c r="T201" s="2">
+        <v>3.7446347765728401E-7</v>
+      </c>
+      <c r="U201" s="2">
+        <v>-1.36760108577738E-6</v>
+      </c>
       <c r="V201" s="1">
         <v>1.72485990403483</v>
       </c>
